--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices Q_historical.xlsx
@@ -1,37 +1,582 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
+  <si>
+    <t>1981-Q1</t>
+  </si>
+  <si>
+    <t>1981-Q2</t>
+  </si>
+  <si>
+    <t>1981-Q3</t>
+  </si>
+  <si>
+    <t>1981-Q4</t>
+  </si>
+  <si>
+    <t>1982-Q1</t>
+  </si>
+  <si>
+    <t>1982-Q2</t>
+  </si>
+  <si>
+    <t>1982-Q3</t>
+  </si>
+  <si>
+    <t>1982-Q4</t>
+  </si>
+  <si>
+    <t>1983-Q1</t>
+  </si>
+  <si>
+    <t>1983-Q2</t>
+  </si>
+  <si>
+    <t>1983-Q3</t>
+  </si>
+  <si>
+    <t>1983-Q4</t>
+  </si>
+  <si>
+    <t>1984-Q1</t>
+  </si>
+  <si>
+    <t>1984-Q2</t>
+  </si>
+  <si>
+    <t>1984-Q3</t>
+  </si>
+  <si>
+    <t>1984-Q4</t>
+  </si>
+  <si>
+    <t>1985-Q1</t>
+  </si>
+  <si>
+    <t>1985-Q2</t>
+  </si>
+  <si>
+    <t>1985-Q3</t>
+  </si>
+  <si>
+    <t>1985-Q4</t>
+  </si>
+  <si>
+    <t>1986-Q1</t>
+  </si>
+  <si>
+    <t>1986-Q2</t>
+  </si>
+  <si>
+    <t>1986-Q3</t>
+  </si>
+  <si>
+    <t>1986-Q4</t>
+  </si>
+  <si>
+    <t>1987-Q1</t>
+  </si>
+  <si>
+    <t>1987-Q2</t>
+  </si>
+  <si>
+    <t>1987-Q3</t>
+  </si>
+  <si>
+    <t>1987-Q4</t>
+  </si>
+  <si>
+    <t>1988-Q1</t>
+  </si>
+  <si>
+    <t>1988-Q2</t>
+  </si>
+  <si>
+    <t>1988-Q3</t>
+  </si>
+  <si>
+    <t>1988-Q4</t>
+  </si>
+  <si>
+    <t>1989-Q1</t>
+  </si>
+  <si>
+    <t>1989-Q2</t>
+  </si>
+  <si>
+    <t>1989-Q3</t>
+  </si>
+  <si>
+    <t>1989-Q4</t>
+  </si>
+  <si>
+    <t>1990-Q1</t>
+  </si>
+  <si>
+    <t>1990-Q2</t>
+  </si>
+  <si>
+    <t>1990-Q3</t>
+  </si>
+  <si>
+    <t>1990-Q4</t>
+  </si>
+  <si>
+    <t>1991-Q1</t>
+  </si>
+  <si>
+    <t>1991-Q2</t>
+  </si>
+  <si>
+    <t>1991-Q3</t>
+  </si>
+  <si>
+    <t>1991-Q4</t>
+  </si>
+  <si>
+    <t>1992-Q1</t>
+  </si>
+  <si>
+    <t>1992-Q2</t>
+  </si>
+  <si>
+    <t>1992-Q3</t>
+  </si>
+  <si>
+    <t>1992-Q4</t>
+  </si>
+  <si>
+    <t>1993-Q1</t>
+  </si>
+  <si>
+    <t>1993-Q2</t>
+  </si>
+  <si>
+    <t>1993-Q3</t>
+  </si>
+  <si>
+    <t>1993-Q4</t>
+  </si>
+  <si>
+    <t>1994-Q1</t>
+  </si>
+  <si>
+    <t>1994-Q2</t>
+  </si>
+  <si>
+    <t>1994-Q3</t>
+  </si>
+  <si>
+    <t>1994-Q4</t>
+  </si>
+  <si>
+    <t>1995-Q1</t>
+  </si>
+  <si>
+    <t>1995-Q2</t>
+  </si>
+  <si>
+    <t>1995-Q3</t>
+  </si>
+  <si>
+    <t>1995-Q4</t>
+  </si>
+  <si>
+    <t>1996-Q1</t>
+  </si>
+  <si>
+    <t>1996-Q2</t>
+  </si>
+  <si>
+    <t>1996-Q3</t>
+  </si>
+  <si>
+    <t>1996-Q4</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q2</t>
+  </si>
+  <si>
+    <t>1997-Q3</t>
+  </si>
+  <si>
+    <t>1997-Q4</t>
+  </si>
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q2</t>
+  </si>
+  <si>
+    <t>2022-Q3</t>
+  </si>
+  <si>
+    <t>2022-Q4</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, steam, water and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Public administration and defense; compulsory social activities</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +591,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +610,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,5844 +907,5328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FM11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q4</t>
-        </is>
+    <row r="1" spans="1:169">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:169">
+      <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
         <v>426356.846116833</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>442921.454657983</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>426217.450344521</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>475940.352870662</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>440461.241496363</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>459543.846881019</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>430935.707445213</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>479310.258267404</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>451880.196489059</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>492660.951095573</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>423170.62864016</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>461132.814055208</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>437508.691643326</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>436019.613417166</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>366681.27496749</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>386775.820952019</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>342926.835534998</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>356439.320831716</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>325512.217442109</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>348917.374781177</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>337504.308305484</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>365085.735959326</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>349067.391959516</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>354605.313215675</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>335813.994804725</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>369645.644893315</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>390655.496927456</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>365780.983544503</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>369103.710957826</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>375032.859231679</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>393132.247660356</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>449325.727650141</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>385163.610148503</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>402296.790359192</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>411662.42790117</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>501283.067541135</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>417197.387129203</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>415474.066598678</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>423472.130655558</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>484215.307646561</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>398044.431410356</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>403040.573755423</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>417072.719297412</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>478776.966436809</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>414445.599488556</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>401288.079551052</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>421488.557808305</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>451404.134312087</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>401489.406936779</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>412327.694230617</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>438573.839771044</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>465135.184591563</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>426184.867814648</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>431285.150503776</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>456983.298034579</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>501593.258086998</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>453819.146956295</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>459141.918972197</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>490178.359455347</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>531160.99268616</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>480672.232370949</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>490223.865290748</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>524152.589471291</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>562104.45226701</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>504410.883633733</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>527136.398597479</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>556506.133531808</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>594078.2670569801</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>512993.932447093</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>514344.801523498</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>540282.723457415</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>556455.583601995</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>482353.693747438</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>503451.106326002</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>542261.380019741</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>566293.1451368181</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>523874.179434</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>545972.730971</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>571096.589254</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>592388.408898</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>529028.744357</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>557215.352004</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>577428.287585</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>599540.394426</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>550491.415774</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>586995.946699</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>585111.272285</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>623784.161616</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>576084.659387</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>614903.240144</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>621477.320467</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>650405.380502</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>608868.595817</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>645143.656247</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>623432.730523</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>693961.351996</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>637068.074262</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>689206.3492619999</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>650178.132472</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>724832.19364</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>658569.3873450001</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>709600.72643</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="CZ2">
         <v>674138.434957</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DA2">
         <v>759790.084214</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DB2">
         <v>690483.919899</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DC2">
         <v>762704.2896810001</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DD2">
         <v>698409.452759</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DE2">
         <v>789077.017507</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2">
         <v>705170.03413</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2">
         <v>793772.127578</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DH2">
         <v>764195.638616</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2">
         <v>838435.852143</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DJ2">
         <v>698670.281627</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DK2">
         <v>788139.8422740001</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DL2">
         <v>722977.0374959999</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DM2">
         <v>847865.130138</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DN2">
         <v>779181.166184</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DO2">
         <v>891895.712289</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DP2">
         <v>781957.340243</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DQ2">
         <v>904989.0688679999</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DR2">
         <v>836026.371944</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2">
         <v>875987.9963689999</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DT2">
         <v>769369.80457</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DU2">
         <v>930425.027824</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DV2">
         <v>879340.9050199999</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DW2">
         <v>935118.615015</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DX2">
         <v>833410.495597</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DY2">
         <v>1026239.745166</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="DZ2">
         <v>979045.610877</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EA2">
         <v>1017270.441571</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EB2">
         <v>880501.27271</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EC2">
         <v>1047701.42147</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="ED2">
         <v>1016014.67816</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EE2">
         <v>1100383.943681</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EF2">
         <v>948834.747252</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EG2">
         <v>1153638.462075</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EH2">
         <v>1067581.976997</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EI2">
         <v>1174987.137156</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EJ2">
         <v>1008860.512728</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EK2">
         <v>1241960.33211</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EL2">
         <v>1157871.382273</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EM2">
         <v>1266733.311857</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EN2">
         <v>1102272.403395</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EO2">
         <v>1334464.65476</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EP2">
         <v>1220659.194509</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="EQ2">
         <v>1355792.504663</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ER2">
         <v>1194929.372623</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ES2">
         <v>1431200.511343</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="ET2">
         <v>1305840.599232</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EU2">
         <v>1456816.084893</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EV2">
         <v>1274190.932938</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EW2">
         <v>1545677.672253</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EX2">
         <v>1371604.916028</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EY2">
         <v>1509246.040142</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="EZ2">
         <v>1351150.083395</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FA2">
         <v>1655867.657322</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FB2">
         <v>1338590.141422</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FC2">
         <v>1181421.968887</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FD2">
         <v>1114455.313328</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FE2">
         <v>1480848.289355</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FF2">
         <v>1282787.94279</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FG2">
         <v>1433000.47306</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FH2">
         <v>1210961.788956</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FI2">
         <v>1622734.063681</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FJ2">
         <v>1416525.808493</v>
       </c>
-      <c r="FK2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Mining and quarrying</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+    <row r="3" spans="1:169">
+      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3">
         <v>8750.984300072259</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>8770.25110830668</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>8978.332637238391</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9275.04148404841</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>7837.73758976088</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>8238.48720103676</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>8727.86413019097</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>8700.890598662771</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>8855.025064538109</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>11791.2866394633</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>11667.979066763</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>11652.5656201755</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>10716.1987399828</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>11598.6185571191</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>11964.687913573</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>11879.9139573416</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>12003.2215300419</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>10820.2395044487</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>11733.48621476</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>10839.5063126831</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>9887.725985902871</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>10315.4491287069</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>13078.3094295224</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>11136.2151594931</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>10569.7709974012</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>10677.665123514</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>12280.6635686175</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>9868.45917766845</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>11059.1479265554</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>10947.4004387958</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>11683.3925133505</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>8924.385574182021</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>11182.4554992557</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>8789.51791654109</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>11309.6164336029</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>9232.654505932691</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>12168.9160808579</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>9525.509991095831</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>11594.7651954722</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>11895.3274039291</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>11278.7895404278</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>10627.5714221045</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>12064.875316392</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>12242.1299521486</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>9652.670925442981</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>10091.9541531877</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>11637.1521735879</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>11332.7366034842</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>8411.888475146519</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>9302.01501557658</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>9398.34905674867</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>10704.6386550422</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>9263.481399107761</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>10604.4512522232</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>9853.045731080911</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>10508.1172110511</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>8207.660307861701</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>9217.24105934516</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>9756.711689908831</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>10693.0785701015</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>10169.0213861253</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>11147.7752444338</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>9217.24105934516</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>9756.711689908831</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>10693.0785701015</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>10169.0213861253</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>11178.363226186</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>11090.9889987397</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>11653.7021648925</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>9033.869841541489</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>10673.858697175</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>10582.8487185686</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>11068.3670374987</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>10831.945931371</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>14689.237692</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>12780.107097</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>13478.473825</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>15504.034763</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>12863.496311</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>15745.206963</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>12793.115381</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>13018.983539</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>27879.747192</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>21193.287038</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>16619.916528</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>15432.067379</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>19638.096992</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>23441.704875</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>25066.785826</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>23532.422471</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>23378.897894</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>23824.470575</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>18895.622979</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>20833.734183</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>24530.300937</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>29236.445481</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CV3">
         <v>21268.372336</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CW3">
         <v>24308.177969</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>25198.156619</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>29560.362701</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>20099.27951</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>20685.202431</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DB3">
         <v>28533.001212</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DC3">
         <v>34022.816132</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DD3">
         <v>23854.768333</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DE3">
         <v>22635.435749</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3">
         <v>29255.986817</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3">
         <v>30590.238627</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DH3">
         <v>22386.399633</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3">
         <v>25051.458005</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DJ3">
         <v>30394.177328</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DK3">
         <v>35595.138673</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DL3">
         <v>26291.219629</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DM3">
         <v>29840.503005</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DN3">
         <v>30028.327809</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DO3">
         <v>44334.717334</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DP3">
         <v>27288.516433</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DQ3">
         <v>31747.549607</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DR3">
         <v>36142.157022</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3">
         <v>46292.311486</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DT3">
         <v>24182.516049</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DU3">
         <v>26771.06728</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DV3">
         <v>33678.767833</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DW3">
         <v>44704.922191</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DX3">
         <v>23659.569618</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DY3">
         <v>25967.311922</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="DZ3">
         <v>32896.638438</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EA3">
         <v>45121.351805</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EB3">
         <v>26041.824737</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EC3">
         <v>26850.666936</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="ED3">
         <v>41827.410892</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EE3">
         <v>49512.767328</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EF3">
         <v>28580.060501</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EG3">
         <v>29590.330955</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EH3">
         <v>41764.586763</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EI3">
         <v>46477.69531</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EJ3">
         <v>28287.19439</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EK3">
         <v>32059.230683</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EL3">
         <v>46383.173318</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EM3">
         <v>46543.873836</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EN3">
         <v>29322.77269</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EO3">
         <v>34556.716018</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EP3">
         <v>41621.494206</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="EQ3">
         <v>51011.944782</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ER3">
         <v>30440.296522</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ES3">
         <v>36991.750708</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="ET3">
         <v>43913.473162</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EU3">
         <v>49764.05792</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EV3">
         <v>29963.557788</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EW3">
         <v>39681.399716</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EX3">
         <v>45590.119112</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EY3">
         <v>56863.457331</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="EZ3">
         <v>29033.801313</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FA3">
         <v>37369.637843</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FB3">
         <v>35898.980272</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FC3">
         <v>44545.428469</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FD3">
         <v>25869.303393</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FE3">
         <v>31179.312999</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FF3">
         <v>36625.59718</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FG3">
         <v>46405.580659</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FH3">
         <v>26894.281056</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FI3">
         <v>34505.577305</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FJ3">
         <v>42850.503783</v>
       </c>
-      <c r="FK3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK3" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+    <row r="4" spans="1:169">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4">
         <v>272324.315367543</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>251184.18187027</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>258453.667598673</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>250357.570993088</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>257855.693772627</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>230372.347728472</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>236334.498523461</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>217592.122818862</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>231392.420725845</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>207057.231001169</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>213189.393962385</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>200520.556334097</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>222557.65057044</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>206863.768880977</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>217685.922634712</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>207872.116901368</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>226157.218503698</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>214549.491292216</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>228777.750859016</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>223958.785319704</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>239078.143137084</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>231509.670495658</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>233280.142019833</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>249548.54758138</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>278274.741185551</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>247514.264075126</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>249747.872190061</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>264632.730467815</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>288381.671343426</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>258037.430915837</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>254232.675885406</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>273238.863572085</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>292749.225268959</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>258617.817276411</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>251014.169704041</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>271913.941173199</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>291940.201857249</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>261373.186867015</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>246195.204164729</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>264749.980237628</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>282618.84515712</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>244758.89448452</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>247320.801954933</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>276551.169569301</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>294173.809972187</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>258166.405662631</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>258506.429995088</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>286107.025809055</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>313285.522451696</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>275290.734543811</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>279857.613078026</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>304304.190084024</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>332221.360276487</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>288780.32056079</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>297286.791360719</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>323591.777218254</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>348507.353303504</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>295516.319836544</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>313127.235262449</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>337632.437153353</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>364998.533427695</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>301425.708235116</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>295516.319836544</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>313127.235262449</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>337632.437153353</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>364998.533427695</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>307193.895540455</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>316353.548519713</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>339124.438774342</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>359030.809299522</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>304491.957483799</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>319671.321723315</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>347565.780381957</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>372413.438810233</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>365732.941255</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>381171.436659</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>402145.161201</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>423739.384853</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>377686.761675</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>388680.962407</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>408925.978216</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>439847.217336</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>390248.381494</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>405861.772486</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>418406.412899</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>461390.86803</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>416141.45955</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>428076.704246</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>433214.51197</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>466728.076934</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>438495.704772</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>441748.879583</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>435153.190564</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>500631.733511</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>462705.827193</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CU4">
         <v>476393.992083</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CV4">
         <v>459446.173431</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CW4">
         <v>534471.113851</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CX4">
         <v>472379.809148</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CY4">
         <v>485379.423539</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="CZ4">
         <v>469736.405618</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DA4">
         <v>560378.631742</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DB4">
         <v>487594.554857</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DC4">
         <v>502454.26582</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DD4">
         <v>480718.619965</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DE4">
         <v>574467.3331930001</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4">
         <v>501463.119369</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4">
         <v>537748.871096</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DH4">
         <v>515575.415987</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4">
         <v>596432.850955</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DJ4">
         <v>476408.456908</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DK4">
         <v>502794.538879</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DL4">
         <v>476404.243263</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DM4">
         <v>603011.569735</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DN4">
         <v>539878.945715</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DO4">
         <v>545147.551445</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DP4">
         <v>496710.156458</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DQ4">
         <v>632749.147891</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DR4">
         <v>578145.503683</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DS4">
         <v>572119.709726</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DT4">
         <v>497746.062275</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DU4">
         <v>649180.503485</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DV4">
         <v>613036.003435</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DW4">
         <v>605356.977177</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DX4">
         <v>525719.425645</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DY4">
         <v>683507.024768</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="DZ4">
         <v>653750.79656</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EA4">
         <v>639489.457161</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EB4">
         <v>542919.421063</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EC4">
         <v>702600.7233909999</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="ED4">
         <v>684807.83432</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EE4">
         <v>699981.540212</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EF4">
         <v>584461.563249</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EG4">
         <v>763608.683337</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EH4">
         <v>721235.839494</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EI4">
         <v>729547.244263</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EJ4">
         <v>611043.290817</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EK4">
         <v>812458.013256</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EL4">
         <v>774691.209007</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EM4">
         <v>771782.0709</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EN4">
         <v>654654.526882</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EO4">
         <v>869811.5706560001</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EP4">
         <v>813257.8954949999</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="EQ4">
         <v>833566.402766</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ER4">
         <v>726370.401721</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ES4">
         <v>944446.732626</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="ET4">
         <v>865404.297717</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EU4">
         <v>891569.74318</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EV4">
         <v>755189.1242289999</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EW4">
         <v>976168.015898</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EX4">
         <v>908331.251516</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EY4">
         <v>915460.216931</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="EZ4">
         <v>765769.781113</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FA4">
         <v>1030894.688027</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FB4">
         <v>878171.149717</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FC4">
         <v>721735.8528540001</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FD4">
         <v>686027.501653</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FE4">
         <v>980367.098507</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FF4">
         <v>885260.694332</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FG4">
         <v>883270.325698</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FH4">
         <v>734102.896323</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FI4">
         <v>1052103.005577</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FJ4">
         <v>974739.717997</v>
       </c>
-      <c r="FK4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Electricity, steam, water and waste management</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+    <row r="5" spans="1:169">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5">
         <v>29567.5438698117</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>29832.4441310959</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>32169.7993777212</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>32068.5139837008</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>26380.9495502456</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>33104.7414763714</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>35114.8669884693</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>32746.3470052222</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>30370.0358378197</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>29622.0821588995</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>30673.892019881</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>31772.4489857948</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>30775.1774139014</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>33260.5651594797</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>33751.4097612712</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>36026.4355346532</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>36042.0179029639</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>34756.4725173199</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>26528.9820491985</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>33603.3772623181</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>28297.5808524785</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>33611.1684464736</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>34281.2102838395</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>36205.6327702278</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>34561.6929134345</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>34179.9248898191</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>36953.586449148</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>37405.4751301622</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>37592.4635498922</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>35971.8972455653</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>36821.1363185059</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>36797.7627660396</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>35901.7765881665</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>36828.9275026612</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>39220.8210383746</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>37584.6723657369</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>38698.8116999617</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>37062.6630273237</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>37740.4960488453</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>38878.0089355362</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>39657.1273510781</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>36789.9715818841</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>37943.066836886</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>39485.7212996587</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>43591.6753495642</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>41784.1206255072</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>43778.6637692941</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>44994.0884975395</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>49115.6249157555</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>44892.8031035189</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>50782.9383250151</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>53346.2379121476</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>54016.2797495135</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>49364.942808729</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>53579.9734368101</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>56906.8090711737</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>58363.7605082369</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>51258.2005584955</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>57865.1247222901</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>59228.5819494882</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>60373.8860203346</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>54943.4306640083</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>51258.2005584955</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>57865.1247222901</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>59228.5819494882</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>60373.8860203346</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>54052.5173805232</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>59729.7864711447</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>59387.4155641872</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>57252.9854214958</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>54238.0644743586</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>59410.5060349709</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>60717.4818733187</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>59354.5654300042</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>53466.297748</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>57772.251081</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>58312.483137</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>58200.823983</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>56881.098411</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>61454.710564</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>62765.806933</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>55131.782162</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>56941.308859</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>63990.523047</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>62517.585323</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>56631.286483</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>59650.244059</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>68771.05585800001</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>69452.87613999999</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>62273.457762</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>66034.710526</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>73761.47440200001</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>73840.14254299999</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>66573.449889</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>68329.03290799999</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5">
         <v>75761.784075</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5">
         <v>73907.852304</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5">
         <v>66095.988067</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5">
         <v>68055.581533</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5">
         <v>78330.73843500001</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5">
         <v>78391.92691900001</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5">
         <v>68665.879371</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5">
         <v>70110.730627</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5">
         <v>83008.697443</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5">
         <v>84393.34594499999</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5">
         <v>73192.120201</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5">
         <v>75883.526587</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5">
         <v>87689.343743</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5">
         <v>91083.67510399999</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5">
         <v>76393.686884</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DJ5">
         <v>77481.672978</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DK5">
         <v>85266.933579</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DL5">
         <v>87389.831653</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DM5">
         <v>77807.054051</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DN5">
         <v>84965.82565699999</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DO5">
         <v>94119.848065</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DP5">
         <v>96503.515673</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DQ5">
         <v>85392.41143199999</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DR5">
         <v>85068.766993</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DS5">
         <v>93565.839222</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DT5">
         <v>98638.118327</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DU5">
         <v>88337.11914900001</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DV5">
         <v>92765.40727500001</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DW5">
         <v>99696.47320199999</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DX5">
         <v>102195.595772</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DY5">
         <v>93182.684643</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="DZ5">
         <v>93859.07858</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EA5">
         <v>104994.643193</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EB5">
         <v>113356.016203</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EC5">
         <v>97439.79064799999</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="ED5">
         <v>95886.26502399999</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EE5">
         <v>109939.780837</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EF5">
         <v>117273.788185</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EG5">
         <v>105336.736795</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EH5">
         <v>102357.09892</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EI5">
         <v>116842.235568</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EJ5">
         <v>128159.535819</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EK5">
         <v>111407.11006</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EL5">
         <v>113469.661581</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EM5">
         <v>128647.023782</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EN5">
         <v>140160.022353</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EO5">
         <v>118195.072126</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EP5">
         <v>116383.118606</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="EQ5">
         <v>133661.204803</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ER5">
         <v>147042.776548</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ES5">
         <v>126073.531149</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="ET5">
         <v>125341.565102</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EU5">
         <v>140761.853746</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EV5">
         <v>155651.584784</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EW5">
         <v>135275.198285</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EX5">
         <v>129544.106909</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EY5">
         <v>152195.862544</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="EZ5">
         <v>167019.937068</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FA5">
         <v>142552.08943</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FB5">
         <v>135881.679126</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FC5">
         <v>142477.07737</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FD5">
         <v>167302.854352</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FE5">
         <v>143551.425013</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FF5">
         <v>137399.455655</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="FG5">
         <v>155966.596414</v>
       </c>
-      <c r="FH5" t="n">
+      <c r="FH5">
         <v>172369.746833</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FI5">
         <v>149769.622399</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FJ5">
         <v>145338.002295</v>
       </c>
-      <c r="FK5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK5" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:169">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
         <v>136600.002190956</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>149655.334392305</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>143370.451662392</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>198679.252012949</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>127649.083200978</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>163590.183710376</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>167172.383633694</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>151496.823355442</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>99119.74672729379</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>95510.0618940788</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>70315.5611546335</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>77342.5364517806</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>63600.0815029923</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>54768.2637892376</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>58716.9291778561</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>76994.3942597447</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>78194.56865860549</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>47631.3488525003</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>45121.0604151883</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>74392.4894561074</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>114144.830804636</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>57150.2893136943</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>67145.6348797798</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>66055.4001205091</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>71946.332475223</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>99339.6260064745</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>62125.0580051556</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>78780.913403087</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>75647.6336747634</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>148794.140548847</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>87750.15566632969</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>91882.0537875986</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>82308.1435066094</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>121547.433203716</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>63361.8789505465</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>78130.4372021778</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>75299.49148272751</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>106476.540943212</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>78670.9737634968</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>85203.2206824876</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>84818.4319439213</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>83517.4795421029</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>83086.88262037421</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>96352.9324642712</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>88941.1684285579</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>82912.8115243561</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>92092.77143014679</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>97571.430136397</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>92596.6614449356</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>100457.345675643</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>100851.296050841</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>100759.679684516</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>100274.112942992</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>105734.448375977</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>108473.777729102</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>110168.680506119</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>113072.91931863</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>120310.612258325</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>131570.263679699</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>130553.322013489</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>133585.823738855</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>129453.925617586</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>133063.610450801</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>131570.263679699</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>130553.322013489</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>133585.823738855</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>129453.925617586</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>139753.736988037</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>129351.081885936</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>106211.694203668</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>107481.852211347</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>101162.25791866</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>105635.757698087</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>100983.052452422</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>101274.018004944</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>89985.702739</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>94248.936134</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>97160.471091</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>94944.165299</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>81597.387959</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>91334.47207</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>92943.38705400001</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>91542.411389</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>75421.978229</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>95950.364128</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>87567.357534</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>90329.939724</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>80654.858787</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>94613.77516400001</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>93743.14653100001</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>97871.42333600001</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CP6">
         <v>80959.28262500001</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6">
         <v>105808.831687</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6">
         <v>95543.77443799999</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6">
         <v>105922.434414</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CT6">
         <v>81502.913224</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CU6">
         <v>107814.127624</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CV6">
         <v>95555.73440099999</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CW6">
         <v>99956.913753</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CX6">
         <v>92935.840045</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CY6">
         <v>116330.201756</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="CZ6">
         <v>105910.82291</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DA6">
         <v>110060.370671</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DB6">
         <v>104245.633202</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DC6">
         <v>143218.510287</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DD6">
         <v>109442.718515</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DE6">
         <v>118782.128364</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DF6">
         <v>98567.401358</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DG6">
         <v>137743.674112</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DH6">
         <v>135150.147893</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DI6">
         <v>140557.856298</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DJ6">
         <v>114385.974413</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DK6">
         <v>164483.231143</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DL6">
         <v>132891.74295</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DM6">
         <v>137206.003347</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DN6">
         <v>124308.067004</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DO6">
         <v>208293.595445</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DP6">
         <v>161455.15168</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DQ6">
         <v>155099.959938</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DR6">
         <v>136669.944246</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DS6">
         <v>164010.135935</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DT6">
         <v>148803.107919</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DU6">
         <v>166136.337911</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DV6">
         <v>139860.726477</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DW6">
         <v>185360.242445</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DX6">
         <v>181835.904562</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DY6">
         <v>223582.723832</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="DZ6">
         <v>198539.097299</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EA6">
         <v>227664.989412</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EB6">
         <v>198184.010707</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EC6">
         <v>220810.240495</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="ED6">
         <v>193493.167924</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EE6">
         <v>240949.855304</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EF6">
         <v>218519.335316</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EG6">
         <v>255102.710988</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EH6">
         <v>202224.45182</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EI6">
         <v>282119.962015</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EJ6">
         <v>241370.491703</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EK6">
         <v>286035.978111</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EL6">
         <v>223327.338367</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EM6">
         <v>319760.343338</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EN6">
         <v>278135.081469</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EO6">
         <v>311901.295961</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EP6">
         <v>249396.686203</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="EQ6">
         <v>337552.952312</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ER6">
         <v>291075.897833</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ES6">
         <v>323688.49686</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="ET6">
         <v>271181.26325</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EU6">
         <v>374720.430047</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EV6">
         <v>333386.666137</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EW6">
         <v>394553.058354</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EX6">
         <v>288139.438491</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EY6">
         <v>384726.503336</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="EZ6">
         <v>389326.563901</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FA6">
         <v>445051.242023</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FB6">
         <v>288638.332306</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FC6">
         <v>272663.610195</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FD6">
         <v>235255.653929</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FE6">
         <v>325750.452836</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FF6">
         <v>223502.195622</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="FG6">
         <v>347357.970289</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FH6">
         <v>277594.864744</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="FI6">
         <v>386355.858399</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FJ6">
         <v>253597.584418</v>
       </c>
-      <c r="FK6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:169">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
         <v>481355.485690919</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>492502.786939106</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>471928.350524792</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>495763.340815181</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>506793.209273884</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>512286.228249626</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>505148.072935264</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>542981.238781222</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>532937.889180011</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>552014.167856427</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>534790.6185851441</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>550781.293868413</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>497046.365578562</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>531863.486176983</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>477006.839724089</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>532693.332230363</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>475453.236698753</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>504837.553565027</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>470444.672010476</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>549094.6374257409</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>478237.675719856</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>519833.166731017</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>508612.082006621</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>578004.5174325031</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>508354.230872418</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>547205.3830646609</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>527843.650025269</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>608293.37180765</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>535618.726787535</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>581069.7716621259</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>570092.790659065</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>656096.464511272</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>578759.070033469</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>621471.435953407</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>608059.075956021</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>693435.307357101</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>608731.873869552</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>649655.546999289</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>640317.035557969</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>718058.492363186</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>619000.733603207</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>649832.7094461049</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>634760.155067549</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>720756.3790631359</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>627081.009444908</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>654656.73894041</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>638177.081303529</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>731380.380931149</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>639915.297079061</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>670412.8605327189</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>656846.281483649</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>750583.730554568</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>663593.449218128</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>699957.6161796449</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>686762.6766593941</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>780323.333612831</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>693755.838724072</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>732329.150963466</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>723070.750785216</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>816326.5385772421</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>734364.530405577</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>778855.864944913</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>768650.608149629</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>868795.689819878</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>778258.293045012</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>823289.219988748</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>808373.828146628</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>907870.640039606</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>809221.263269765</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>854904.426476853</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>833258.116210737</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>915344.233422638</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>837977.3168852601</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>893194.1560265051</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>873085.716136366</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>964311.407531864</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>866882.214111</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>928901.9545399999</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>908635.353531</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>983626.722461</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>896064.757005</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CE7">
         <v>962350.309248</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CF7">
         <v>946040.27709</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CG7">
         <v>1025598.127057</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CH7">
         <v>927788.23199</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CI7">
         <v>997744.686506</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CJ7">
         <v>979811.964429</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CK7">
         <v>1069175.756275</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CL7">
         <v>966693.574995</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CM7">
         <v>1045047.248578</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CN7">
         <v>1031607.290285</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CO7">
         <v>1142087.674028</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CP7">
         <v>1047483.071867</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CQ7">
         <v>1147573.368788</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CR7">
         <v>1127532.448547</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CS7">
         <v>1209973.467153</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CT7">
         <v>1119862.674919</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CU7">
         <v>1211343.005845</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CV7">
         <v>1177276.520337</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CW7">
         <v>1263488.432488</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CX7">
         <v>1171338.80965</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CY7">
         <v>1295854.056088</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="CZ7">
         <v>1237942.557401</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DA7">
         <v>1372892.05213</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DB7">
         <v>1259497.921319</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DC7">
         <v>1387226.801026</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DD7">
         <v>1341944.566421</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DE7">
         <v>1480148.472074</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DF7">
         <v>1324379.794738</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DG7">
         <v>1463429.714782</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DH7">
         <v>1391412.528033</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DI7">
         <v>1507730.091605</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DJ7">
         <v>1352692.21308</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DK7">
         <v>1512309.495956</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DL7">
         <v>1460480.842947</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DM7">
         <v>1556291.349604</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DN7">
         <v>1467795.520569</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DO7">
         <v>1632626.043163</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DP7">
         <v>1575185.996709</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DQ7">
         <v>1650429.378844</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DR7">
         <v>1516676.087964</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DS7">
         <v>1722428.149795</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DT7">
         <v>1658607.082727</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DU7">
         <v>1755284.670063</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DV7">
         <v>1636802.896113</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DW7">
         <v>1846608.168874</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DX7">
         <v>1783637.274953</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DY7">
         <v>1876996.581904</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="DZ7">
         <v>1740366.437071</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EA7">
         <v>1996354.617731</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EB7">
         <v>1928829.78854</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EC7">
         <v>2019382.35194</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="ED7">
         <v>1874875.096147</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EE7">
         <v>2134712.815067</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EF7">
         <v>2057330.903795</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EG7">
         <v>2134249.743997</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EH7">
         <v>1990037.003104</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EI7">
         <v>2290569.745117</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EJ7">
         <v>2217846.868452</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EK7">
         <v>2310720.119062</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EL7">
         <v>2158135.11296</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EM7">
         <v>2491165.509423</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EN7">
         <v>2374883.865471</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EO7">
         <v>2505064.671949</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EP7">
         <v>2311726.348227</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="EQ7">
         <v>2674944.867675</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ER7">
         <v>2559290.001797</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ES7">
         <v>2684300.991215</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="ET7">
         <v>2471220.167237</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EU7">
         <v>2856770.716281</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EV7">
         <v>2734477.623975</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EW7">
         <v>2857579.964772</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EX7">
         <v>2650701.046455</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EY7">
         <v>3066860.724086</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="EZ7">
         <v>2924291.73086</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FA7">
         <v>3069173.265877</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FB7">
         <v>2655494.986561</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FC7">
         <v>2545506.037184</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FD7">
         <v>2616158.854618</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FE7">
         <v>2824977.123926</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="FF7">
         <v>2548496.994154</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="FG7">
         <v>2796474.311747</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FH7">
         <v>2816586.022762</v>
       </c>
-      <c r="FI7" t="n">
+      <c r="FI7">
         <v>3051654.157706</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FJ7">
         <v>2766869.721846</v>
       </c>
-      <c r="FK7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK7" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+    <row r="8" spans="1:169">
+      <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8">
         <v>150869.180128916</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>164407.845797539</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>172054.19258851</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>173709.508974242</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>168690.407456037</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>144999.640834556</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>165167.165240535</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>151810.736238232</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>173094.460225415</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>142865.953199736</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>160641.621360278</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>144255.507780419</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>181219.178265475</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>145948.790138301</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>170421.655786069</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>155440.283175754</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>188166.95116889</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>151992.972904551</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>171446.737034114</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>165250.690379264</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>194985.639766996</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>156389.432479499</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>178774.169659027</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>176511.397718898</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>211045.245986366</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>168318.340928969</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>191128.296996575</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>191720.566162112</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>228874.066507917</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>176336.754247009</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>198189.96781644</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>201455.041421324</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>239739.927737193</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>180459.858822478</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>198934.100870576</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>199883.250174322</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>240802.974957386</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>182768.189929187</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>201827.107948392</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>203155.916973635</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>245829.669670023</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>186283.83895026</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>206215.97432891</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>209336.777239625</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>252238.325768911</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>193672.017130613</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>214302.72639682</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>217347.597363234</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>262496.731443788</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>203657.067806013</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>226611.294567788</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>229754.877061792</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>277204.749054626</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>214894.995562357</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>238828.744405598</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>242913.883008916</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>292353.171942401</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>225320.451514694</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>249185.861608065</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>253316.559377964</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>299733.756928322</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>225320.451514694</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>249185.861608065</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>253316.559377964</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>299733.756928322</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>223630.57960058</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>243356.84499192</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>246339.966120421</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>297154.979341288</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>237317.278224899</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>263734.592296451</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>271390.252282727</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>326505.379004321</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="BZ8">
         <v>276284.028466</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CA8">
         <v>308488.142439</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8">
         <v>314609.483328</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CC8">
         <v>360767.9713</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CD8">
         <v>289115.058662</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CE8">
         <v>323026.574232</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CF8">
         <v>333163.330597</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CG8">
         <v>373233.658172</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CH8">
         <v>298310.137804</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CI8">
         <v>335619.694597</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CJ8">
         <v>341639.625109</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CK8">
         <v>386032.691343</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CL8">
         <v>309491.371106</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CM8">
         <v>349222.306163</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CN8">
         <v>353852.49674</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CO8">
         <v>412731.571866</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CP8">
         <v>332652.352783</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CQ8">
         <v>373865.076318</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CR8">
         <v>381939.093564</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CS8">
         <v>437431.722046</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CT8">
         <v>348926.740865</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CU8">
         <v>396389.337891</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="CV8">
         <v>398086.459409</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CW8">
         <v>460191.217905</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CX8">
         <v>363612.105576</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CY8">
         <v>415728.085774</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="CZ8">
         <v>422058.745403</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DA8">
         <v>495836.221034</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DB8">
         <v>392750.191201</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DC8">
         <v>446640.979572</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DD8">
         <v>461896.493081</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DE8">
         <v>536126.244204</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DF8">
         <v>393118.127302</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DG8">
         <v>462043.443822</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DH8">
         <v>468247.605513</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DI8">
         <v>538143.579021</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DJ8">
         <v>385021.567035</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DK8">
         <v>461191.118187</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DL8">
         <v>472535.19713</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DM8">
         <v>558443.511816</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DN8">
         <v>437376.901723</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DO8">
         <v>497342.566244</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DP8">
         <v>519928.212766</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DQ8">
         <v>575666.07784</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DR8">
         <v>442831.209824</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DS8">
         <v>508245.713148</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DT8">
         <v>544768.293693</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DU8">
         <v>598068.111017</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DV8">
         <v>469777.176648</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DW8">
         <v>542305.340724</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DX8">
         <v>598166.729265</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DY8">
         <v>635203.617412</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="DZ8">
         <v>492523.731135</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EA8">
         <v>578599.6456329999</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EB8">
         <v>634153.84478</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EC8">
         <v>675804.946072</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="ED8">
         <v>524822.530495</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EE8">
         <v>614911.111786</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EF8">
         <v>672383.6753539999</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EG8">
         <v>694417.875688</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EH8">
         <v>553924.502477</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EI8">
         <v>655136.4532700001</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EJ8">
         <v>722259.028939</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EK8">
         <v>738973.993392</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EL8">
         <v>591297.482216</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EM8">
         <v>710314.738172</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EN8">
         <v>765702.5719</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EO8">
         <v>793745.703972</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EP8">
         <v>633595.642403</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="EQ8">
         <v>751456.628101</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ER8">
         <v>819211.073043</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ES8">
         <v>853289.003791</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="ET8">
         <v>666889.864272</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EU8">
         <v>798756.208335</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EV8">
         <v>862991.56223</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EW8">
         <v>908666.864278</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EX8">
         <v>713570.8680510001</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EY8">
         <v>867097.628516</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="EZ8">
         <v>934753.183358</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FA8">
         <v>973877.7187</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FB8">
         <v>723510.457624</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FC8">
         <v>744588.678874</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FD8">
         <v>876132.1872780001</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="FE8">
         <v>931305.48924</v>
       </c>
-      <c r="FF8" t="n">
+      <c r="FF8">
         <v>698808.418984</v>
       </c>
-      <c r="FG8" t="n">
+      <c r="FG8">
         <v>784583.723129</v>
       </c>
-      <c r="FH8" t="n">
+      <c r="FH8">
         <v>933154.089046</v>
       </c>
-      <c r="FI8" t="n">
+      <c r="FI8">
         <v>997780.097056</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FJ8">
         <v>749925.921031</v>
       </c>
-      <c r="FK8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK8" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+    <row r="9" spans="1:169">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9">
         <v>37949.0081605677</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>39779.7452672508</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>50112.5496151404</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>48848.0998338295</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>46823.4287116078</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>44224.7129033924</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>42642.2113365985</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>35528.7116466476</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>33604.8862125058</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>30781.2069462658</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>32099.9582519274</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>34729.703502629</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>35218.4172217859</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>33116.172493349</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>35055.5126487336</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>36894.0071160384</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>38577.3543709122</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>37025.8822466045</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>38903.1635170168</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>42704.2702215708</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>47878.4297561372</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>44744.4560650356</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>45403.8317178663</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>43611.8814142909</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>51214.0948233989</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>49220.4531436633</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>55286.7091497067</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>49639.3506172266</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>57326.8949931715</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>53106.8908150542</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>60491.8981267592</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>57761.3071879776</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>61112.4869764824</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>55527.1873289744</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>58071.6016128391</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>54487.7010056881</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>57761.3071879776</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>55969.3568844022</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>57823.3660729499</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>54604.0614150112</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>58250.0209071344</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>56489.1000460452</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>58808.5508718854</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>56450.3132429375</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>60266.9346687346</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>59328.2940335284</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>61950.2819236085</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>59498.9559672022</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>63936.1662427225</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>62927.7093619224</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>66410.7642809934</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>64052.5266520455</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>69211.1714653688</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>70312.71667362739</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>74687.8680641751</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>73260.513709812</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>80498.13116970781</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>81312.65403496919</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>84190.63482556021</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>82802.0672743046</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>81312.65403496919</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>84190.63482556021</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>82802.0672743046</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>89209.64714769561</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>94277.46868794929</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>96940.3402492764</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>96777.21772589019</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>101462.88366382</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>96981.2816230218</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>100786.508504556</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>100571.53248267</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>105799.47987516</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="BZ9">
         <v>80370.874425</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CA9">
         <v>86040.819343</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9">
         <v>85689.50793199999</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CC9">
         <v>88918.366419</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CD9">
         <v>85555.36539799999</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CE9">
         <v>91644.81746799999</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CF9">
         <v>87501.243199</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CG9">
         <v>93182.153003</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CH9">
         <v>89233.31312000001</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CI9">
         <v>97950.829229</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CJ9">
         <v>92797.879065</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CK9">
         <v>100011.574198</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CL9">
         <v>94744.416568</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CM9">
         <v>106525.800742</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CN9">
         <v>100020.04485</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CO9">
         <v>106616.841462</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="CP9">
         <v>102341.609472</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CQ9">
         <v>115466.527791</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CR9">
         <v>110473.391694</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CS9">
         <v>116018.610169</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CT9">
         <v>115502.559651</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="CU9">
         <v>125676.188094</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="CV9">
         <v>127645.446524</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="CW9">
         <v>121044.095135</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CX9">
         <v>123973.548435</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CY9">
         <v>158375.91693</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="CZ9">
         <v>125013.194069</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DA9">
         <v>148186.704331</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DB9">
         <v>139948.216447</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DC9">
         <v>173148.425072</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DD9">
         <v>138173.497788</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DE9">
         <v>167396.51329</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DF9">
         <v>156842.956966</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DG9">
         <v>179346.265161</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DH9">
         <v>140188.488049</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DI9">
         <v>160850.731777</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DJ9">
         <v>160676.449226</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DK9">
         <v>185349.674073</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DL9">
         <v>163839.100619</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DM9">
         <v>170322.191999</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DN9">
         <v>176243.665913</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DO9">
         <v>198367.852772</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DP9">
         <v>187443.990239</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DQ9">
         <v>195845.240672</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DR9">
         <v>189599.848232</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DS9">
         <v>223809.677542</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DT9">
         <v>192337.857509</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DU9">
         <v>201130.977118</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DV9">
         <v>208649.254382</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DW9">
         <v>242488.067794</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DX9">
         <v>211374.064024</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DY9">
         <v>221462.768832</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="DZ9">
         <v>249065.500995</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EA9">
         <v>270237.691245</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EB9">
         <v>239746.053383</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EC9">
         <v>247789.518975</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="ED9">
         <v>266284.89705</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EE9">
         <v>289837.46762</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EF9">
         <v>262866.573082</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EG9">
         <v>273049.262588</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EH9">
         <v>281197.640962</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EI9">
         <v>310326.191902</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EJ9">
         <v>280390.323751</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EK9">
         <v>300079.528181</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EL9">
         <v>311568.010723</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EM9">
         <v>334507.576059</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EN9">
         <v>306670.595194</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EO9">
         <v>322940.862837</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EP9">
         <v>335737.872963</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="EQ9">
         <v>368285.8765</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ER9">
         <v>336078.553659</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ES9">
         <v>342418.281393</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="ET9">
         <v>364961.720882</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EU9">
         <v>400121.615383</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EV9">
         <v>364315.665558</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EW9">
         <v>368747.705788</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EX9">
         <v>409049.990365</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EY9">
         <v>442933.095595</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="EZ9">
         <v>411062.11995</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FA9">
         <v>413402.895595</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FB9">
         <v>445247.941266</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FC9">
         <v>464072.828579</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="FD9">
         <v>428205.447654</v>
       </c>
-      <c r="FE9" t="n">
+      <c r="FE9">
         <v>432426.279824</v>
       </c>
-      <c r="FF9" t="n">
+      <c r="FF9">
         <v>464504.390475</v>
       </c>
-      <c r="FG9" t="n">
+      <c r="FG9">
         <v>488304.500877</v>
       </c>
-      <c r="FH9" t="n">
+      <c r="FH9">
         <v>444750.051609</v>
       </c>
-      <c r="FI9" t="n">
+      <c r="FI9">
         <v>455595.479378</v>
       </c>
-      <c r="FJ9" t="n">
+      <c r="FJ9">
         <v>498115.453269</v>
       </c>
-      <c r="FK9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK9" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Public administration and defense; compulsory social activities</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+    <row r="10" spans="1:169">
+      <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10">
         <v>51592.2755247595</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>53264.1116276085</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>49810.4502046179</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>52178.8846836539</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>52904.8135177857</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>49348.4954919886</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>49187.1779732925</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>47163.3763751071</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>57993.6479711942</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>46738.0847349086</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>45418.2141273963</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>48424.5860667299</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>64028.38969332</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>47896.637823725</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>47295.3634358582</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>50426.3898214568</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>64827.6446723137</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>50323.7332186504</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>48989.1973821658</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>52076.2280808471</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>66477.482931704</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>50118.4200130375</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>54877.2868145679</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>59291.520735248</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>72717.5378594427</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>58785.5703357016</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>58198.9611768074</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>57561.0237165095</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>70796.3928640637</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>64160.3767540713</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>63713.0872704144</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>64468.3465624907</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>74602.019782391</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>65641.5648802795</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>64834.9772867998</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>65575.5713499039</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>74851.32867492099</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>65597.5691933624</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>66176.84573777069</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>63903.735247055</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>75877.8947029863</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>67042.0942471399</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>68647.9368196131</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>66756.1222821788</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>76647.819224035</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>71067.6996000525</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>72614.88125663641</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>70737.73194817441</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>79918.1652848712</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>73384.80577768529</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>74997.9809646447</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>73854.0931048007</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>83122.5178153317</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>79250.89736662871</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>80864.0725535884</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>76603.8235371179</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>86642.1727686979</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>81069.3857592014</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>84222.4099882586</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>78165.6704226742</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>81069.3857592014</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>84222.4099882586</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>78165.6704226742</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>88116.02828041989</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>85921.55571108</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>92347.7139379596</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>83430.51331302051</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>91796.5684556777</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>85969.90142703459</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>93284.6352774908</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>82014.9860609131</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>90680.33599658711</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="BZ10">
         <v>82051.01630800001</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CA10">
         <v>86773.00859100001</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10">
         <v>78220.861951</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CC10">
         <v>83327.602423</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CD10">
         <v>84122.737092</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CE10">
         <v>88117.59272</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CF10">
         <v>79774.161662</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CG10">
         <v>85850.841697</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CH10">
         <v>84696.29309799999</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CI10">
         <v>88638.563666</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CJ10">
         <v>81209.804829</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CK10">
         <v>87767.67576899999</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CL10">
         <v>86107.382102</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CM10">
         <v>90285.338871</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CN10">
         <v>85898.653337</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CO10">
         <v>93312.291277</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="CP10">
         <v>94621.27484300001</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="CQ10">
         <v>101049.378993</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="CR10">
         <v>94292.61504</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CS10">
         <v>93956.24156900001</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="CT10">
         <v>100964.992136</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="CU10">
         <v>102475.421215</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="CV10">
         <v>92218.93853</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="CW10">
         <v>92369.964496</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="CX10">
         <v>102676.852273</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="CY10">
         <v>107145.47789</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="CZ10">
         <v>96686.35371700001</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DA10">
         <v>96996.533597</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DB10">
         <v>105052.080391</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DC10">
         <v>109061.731362</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DD10">
         <v>99016.405847</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DE10">
         <v>97837.410292</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DF10">
         <v>107723.731826</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DG10">
         <v>111024.196167</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DH10">
         <v>101074.158498</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DI10">
         <v>101354.834485</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DJ10">
         <v>109183.170298</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DK10">
         <v>122544.633934</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DL10">
         <v>110762.228073</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DM10">
         <v>106145.304449</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DN10">
         <v>117825.478299</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DO10">
         <v>134806.606036</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DP10">
         <v>118465.139261</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DQ10">
         <v>105759.087292</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DR10">
         <v>111144.4335</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DS10">
         <v>141214.575996</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DT10">
         <v>123999.526052</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DU10">
         <v>111666.121057</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DV10">
         <v>117146.175482</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DW10">
         <v>147840.086692</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DX10">
         <v>131061.833778</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DY10">
         <v>122135.447146</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="DZ10">
         <v>122545.562735</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EA10">
         <v>155484.397808</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EB10">
         <v>137966.633863</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EC10">
         <v>118468.015478</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="ED10">
         <v>131624.302677</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EE10">
         <v>159013.598972</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EF10">
         <v>135279.006232</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EG10">
         <v>132687.678622</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EH10">
         <v>126938.052288</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EI10">
         <v>158517.75904</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EJ10">
         <v>139371.323823</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EK10">
         <v>142969.434768</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EL10">
         <v>133891.476604</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EM10">
         <v>169124.378348</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EN10">
         <v>144926.719656</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EO10">
         <v>162632.30152</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EP10">
         <v>143366.736055</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="EQ10">
         <v>185937.973074</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ER10">
         <v>158892.659037</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ES10">
         <v>178195.91189</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="ET10">
         <v>162305.481888</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EU10">
         <v>213847.262832</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EV10">
         <v>187223.220143</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EW10">
         <v>204330.146161</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EX10">
         <v>181491.096823</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EY10">
         <v>238355.579891</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="EZ10">
         <v>203599.161638</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FA10">
         <v>248118.444993</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FB10">
         <v>191492.166309</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FC10">
         <v>255265.588587</v>
       </c>
-      <c r="FD10" t="n">
+      <c r="FD10">
         <v>213040.213391</v>
       </c>
-      <c r="FE10" t="n">
+      <c r="FE10">
         <v>251389.80293</v>
       </c>
-      <c r="FF10" t="n">
+      <c r="FF10">
         <v>205833.404116</v>
       </c>
-      <c r="FG10" t="n">
+      <c r="FG10">
         <v>268395.090843</v>
       </c>
-      <c r="FH10" t="n">
+      <c r="FH10">
         <v>224610.897508</v>
       </c>
-      <c r="FI10" t="n">
+      <c r="FI10">
         <v>263985.080477</v>
       </c>
-      <c r="FJ10" t="n">
+      <c r="FJ10">
         <v>207445.124698</v>
       </c>
-      <c r="FK10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK10" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="n">
+    <row r="11" spans="1:169">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ11">
         <v>33222.769538</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CA11">
         <v>34949.547236</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11">
         <v>34483.879389</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CC11">
         <v>36002.698732</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11">
         <v>34104.375329</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11">
         <v>35808.8615</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CF11">
         <v>36054.24254</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CG11">
         <v>37244.314304</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CH11">
         <v>34838.435688</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CI11">
         <v>36241.808415</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CJ11">
         <v>36817.526079</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CK11">
         <v>37684.943233</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CL11">
         <v>35050.501199</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CM11">
         <v>36495.774518</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CN11">
         <v>37051.236642</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CO11">
         <v>38687.603597</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="CP11">
         <v>38203.392904</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CQ11">
         <v>40738.159685</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="CR11">
         <v>40721.657973</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CS11">
         <v>42489.667357</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="CT11">
         <v>39816.339586</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="CU11">
         <v>41602.720929</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="CV11">
         <v>40729.565381</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="CW11">
         <v>42671.362896</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="CX11">
         <v>41885.280046</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="CY11">
         <v>42349.694577</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="CZ11">
         <v>42253.945137</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DA11">
         <v>47259.422543</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DB11">
         <v>44593.955636</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DC11">
         <v>46262.912684</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DD11">
         <v>45738.332602</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DE11">
         <v>52074.162229</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DF11">
         <v>47187.57018</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DG11">
         <v>48944.836864</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DH11">
         <v>47030.906065</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DI11">
         <v>53827.194271</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DJ11">
         <v>48361.636609</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DK11">
         <v>51163.888868</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DL11">
         <v>51597.099821</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DM11">
         <v>60965.013047</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DN11">
         <v>56974.52523</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DO11">
         <v>60420.491481</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DP11">
         <v>58328.796335</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DQ11">
         <v>77830.895325</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DR11">
         <v>57707.564317</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DS11">
         <v>61424.451058</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DT11">
         <v>63638.368231</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DU11">
         <v>82568.700817</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DV11">
         <v>74874.873338</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DW11">
         <v>73302.83919100001</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DX11">
         <v>69352.476243</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DY11">
         <v>90257.18646899999</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="DZ11">
         <v>81849.769028</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EA11">
         <v>78986.74525599999</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EB11">
         <v>69831.126732</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EC11">
         <v>92980.047464</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="ED11">
         <v>86996.07178499999</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EE11">
         <v>77540.215108</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EF11">
         <v>71308.754328</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EG11">
         <v>90673.202213</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EH11">
         <v>91094.640822</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EI11">
         <v>92214.93479</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EJ11">
         <v>76211.804924</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EK11">
         <v>99668.96401900001</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EL11">
         <v>98103.299581</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EM11">
         <v>103794.542747</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EN11">
         <v>79938.14666499999</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EO11">
         <v>102754.373763</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EP11">
         <v>101937.597104</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="EQ11">
         <v>103458.429168</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ER11">
         <v>80317.107234</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ES11">
         <v>107519.729576</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="ET11">
         <v>106992.055771</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EU11">
         <v>108650.360499</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EV11">
         <v>83189.64532</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EW11">
         <v>112192.932663</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EX11">
         <v>114162.711452</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EY11">
         <v>115851.190157</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="EZ11">
         <v>87495.69008099999</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FA11">
         <v>121181.005554</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FB11">
         <v>102955.803569</v>
       </c>
-      <c r="FC11" t="n">
+      <c r="FC11">
         <v>42105.144531</v>
       </c>
-      <c r="FD11" t="n">
+      <c r="FD11">
         <v>44918.260481</v>
       </c>
-      <c r="FE11" t="n">
+      <c r="FE11">
         <v>68778.972838</v>
       </c>
-      <c r="FF11" t="n">
+      <c r="FF11">
         <v>63079.471816</v>
       </c>
-      <c r="FG11" t="n">
+      <c r="FG11">
         <v>57920.704429</v>
       </c>
-      <c r="FH11" t="n">
+      <c r="FH11">
         <v>53709.409664</v>
       </c>
-      <c r="FI11" t="n">
+      <c r="FI11">
         <v>89140.966334</v>
       </c>
-      <c r="FJ11" t="n">
+      <c r="FJ11">
         <v>77120.42705699999</v>
       </c>
-      <c r="FK11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK11" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Constant Prices Q_historical.xlsx
@@ -1,582 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>2022-Q2</t>
-  </si>
-  <si>
-    <t>2022-Q3</t>
-  </si>
-  <si>
-    <t>2022-Q4</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, steam, water and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public administration and defense; compulsory social activities</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -591,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -610,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -907,5328 +353,5844 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:FM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:169">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:169">
-      <c r="A2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>426356.846116833</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>442921.454657983</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>426217.450344521</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>475940.352870662</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>440461.241496363</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>459543.846881019</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>430935.707445213</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>479310.258267404</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>451880.196489059</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>492660.951095573</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>423170.62864016</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>461132.814055208</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>437508.691643326</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>436019.613417166</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>366681.27496749</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>386775.820952019</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>342926.835534998</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>356439.320831716</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>325512.217442109</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>348917.374781177</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>337504.308305484</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>365085.735959326</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>349067.391959516</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>354605.313215675</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>335813.994804725</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>369645.644893315</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>390655.496927456</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>365780.983544503</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>369103.710957826</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>375032.859231679</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>393132.247660356</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>449325.727650141</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>385163.610148503</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>402296.790359192</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>411662.42790117</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>501283.067541135</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>417197.387129203</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>415474.066598678</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>423472.130655558</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>484215.307646561</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>398044.431410356</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>403040.573755423</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>417072.719297412</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>478776.966436809</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>414445.599488556</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>401288.079551052</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>421488.557808305</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>451404.134312087</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>401489.406936779</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>412327.694230617</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>438573.839771044</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>465135.184591563</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>426184.867814648</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>431285.150503776</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>456983.298034579</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>501593.258086998</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>453819.146956295</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>459141.918972197</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>490178.359455347</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>531160.99268616</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>480672.232370949</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>490223.865290748</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>524152.589471291</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>562104.45226701</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>504410.883633733</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>527136.398597479</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>556506.133531808</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>594078.2670569801</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>512993.932447093</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>514344.801523498</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>540282.723457415</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>556455.583601995</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>482353.693747438</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>503451.106326002</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>542261.380019741</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>566293.1451368181</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>523874.179434</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>545972.730971</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>571096.589254</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>592388.408898</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>529028.744357</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>557215.352004</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>577428.287585</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>599540.394426</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>550491.415774</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>586995.946699</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>585111.272285</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>623784.161616</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>576084.659387</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>614903.240144</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>621477.320467</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>650405.380502</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>608868.595817</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>645143.656247</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>623432.730523</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>693961.351996</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>637068.074262</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>689206.3492619999</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>650178.132472</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>724832.19364</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>658569.3873450001</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>709600.72643</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>674138.434957</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>759790.084214</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>690483.919899</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>762704.2896810001</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>698409.452759</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>789077.017507</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>705170.03413</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>793772.127578</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>764195.638616</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>838435.852143</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>698670.281627</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>788139.8422740001</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>722977.0374959999</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>847865.130138</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>779181.166184</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>891895.712289</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>781957.340243</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>904989.0688679999</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>836026.371944</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>875987.9963689999</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>769369.80457</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>930425.027824</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>879340.9050199999</v>
       </c>
-      <c r="DW2">
+      <c r="DW2" t="n">
         <v>935118.615015</v>
       </c>
-      <c r="DX2">
+      <c r="DX2" t="n">
         <v>833410.495597</v>
       </c>
-      <c r="DY2">
+      <c r="DY2" t="n">
         <v>1026239.745166</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" t="n">
         <v>979045.610877</v>
       </c>
-      <c r="EA2">
+      <c r="EA2" t="n">
         <v>1017270.441571</v>
       </c>
-      <c r="EB2">
+      <c r="EB2" t="n">
         <v>880501.27271</v>
       </c>
-      <c r="EC2">
+      <c r="EC2" t="n">
         <v>1047701.42147</v>
       </c>
-      <c r="ED2">
+      <c r="ED2" t="n">
         <v>1016014.67816</v>
       </c>
-      <c r="EE2">
+      <c r="EE2" t="n">
         <v>1100383.943681</v>
       </c>
-      <c r="EF2">
+      <c r="EF2" t="n">
         <v>948834.747252</v>
       </c>
-      <c r="EG2">
+      <c r="EG2" t="n">
         <v>1153638.462075</v>
       </c>
-      <c r="EH2">
+      <c r="EH2" t="n">
         <v>1067581.976997</v>
       </c>
-      <c r="EI2">
+      <c r="EI2" t="n">
         <v>1174987.137156</v>
       </c>
-      <c r="EJ2">
+      <c r="EJ2" t="n">
         <v>1008860.512728</v>
       </c>
-      <c r="EK2">
+      <c r="EK2" t="n">
         <v>1241960.33211</v>
       </c>
-      <c r="EL2">
+      <c r="EL2" t="n">
         <v>1157871.382273</v>
       </c>
-      <c r="EM2">
+      <c r="EM2" t="n">
         <v>1266733.311857</v>
       </c>
-      <c r="EN2">
+      <c r="EN2" t="n">
         <v>1102272.403395</v>
       </c>
-      <c r="EO2">
+      <c r="EO2" t="n">
         <v>1334464.65476</v>
       </c>
-      <c r="EP2">
+      <c r="EP2" t="n">
         <v>1220659.194509</v>
       </c>
-      <c r="EQ2">
+      <c r="EQ2" t="n">
         <v>1355792.504663</v>
       </c>
-      <c r="ER2">
+      <c r="ER2" t="n">
         <v>1194929.372623</v>
       </c>
-      <c r="ES2">
+      <c r="ES2" t="n">
         <v>1431200.511343</v>
       </c>
-      <c r="ET2">
+      <c r="ET2" t="n">
         <v>1305840.599232</v>
       </c>
-      <c r="EU2">
+      <c r="EU2" t="n">
         <v>1456816.084893</v>
       </c>
-      <c r="EV2">
+      <c r="EV2" t="n">
         <v>1274190.932938</v>
       </c>
-      <c r="EW2">
+      <c r="EW2" t="n">
         <v>1545677.672253</v>
       </c>
-      <c r="EX2">
+      <c r="EX2" t="n">
         <v>1371604.916028</v>
       </c>
-      <c r="EY2">
+      <c r="EY2" t="n">
         <v>1509246.040142</v>
       </c>
-      <c r="EZ2">
+      <c r="EZ2" t="n">
         <v>1351150.083395</v>
       </c>
-      <c r="FA2">
+      <c r="FA2" t="n">
         <v>1655867.657322</v>
       </c>
-      <c r="FB2">
+      <c r="FB2" t="n">
         <v>1338590.141422</v>
       </c>
-      <c r="FC2">
+      <c r="FC2" t="n">
         <v>1181421.968887</v>
       </c>
-      <c r="FD2">
+      <c r="FD2" t="n">
         <v>1114455.313328</v>
       </c>
-      <c r="FE2">
+      <c r="FE2" t="n">
         <v>1480848.289355</v>
       </c>
-      <c r="FF2">
+      <c r="FF2" t="n">
         <v>1282787.94279</v>
       </c>
-      <c r="FG2">
+      <c r="FG2" t="n">
         <v>1433000.47306</v>
       </c>
-      <c r="FH2">
+      <c r="FH2" t="n">
         <v>1210961.788956</v>
       </c>
-      <c r="FI2">
+      <c r="FI2" t="n">
         <v>1622734.063681</v>
       </c>
-      <c r="FJ2">
+      <c r="FJ2" t="n">
         <v>1416525.808493</v>
       </c>
-      <c r="FK2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>178</v>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:169">
-      <c r="A3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and quarrying</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>8750.984300072259</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>8770.25110830668</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>8978.332637238391</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>9275.04148404841</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>7837.73758976088</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>8238.48720103676</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>8727.86413019097</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>8700.890598662771</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>8855.025064538109</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>11791.2866394633</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>11667.979066763</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>11652.5656201755</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>10716.1987399828</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>11598.6185571191</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>11964.687913573</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>11879.9139573416</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>12003.2215300419</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>10820.2395044487</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>11733.48621476</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>10839.5063126831</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>9887.725985902871</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>10315.4491287069</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>13078.3094295224</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>11136.2151594931</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>10569.7709974012</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>10677.665123514</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>12280.6635686175</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>9868.45917766845</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>11059.1479265554</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>10947.4004387958</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>11683.3925133505</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>8924.385574182021</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>11182.4554992557</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>8789.51791654109</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>11309.6164336029</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>9232.654505932691</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>12168.9160808579</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>9525.509991095831</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>11594.7651954722</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>11895.3274039291</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>11278.7895404278</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>10627.5714221045</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>12064.875316392</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>12242.1299521486</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>9652.670925442981</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>10091.9541531877</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>11637.1521735879</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>11332.7366034842</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>8411.888475146519</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>9302.01501557658</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>9398.34905674867</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>10704.6386550422</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>9263.481399107761</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>10604.4512522232</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>9853.045731080911</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>10508.1172110511</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>8207.660307861701</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>9217.24105934516</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>9756.711689908831</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>10693.0785701015</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>10169.0213861253</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>11147.7752444338</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>9217.24105934516</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>9756.711689908831</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>10693.0785701015</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>10169.0213861253</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>11178.363226186</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>11090.9889987397</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>11653.7021648925</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>9033.869841541489</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>10673.858697175</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>10582.8487185686</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>11068.3670374987</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>10831.945931371</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>14689.237692</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>12780.107097</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>13478.473825</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>15504.034763</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>12863.496311</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>15745.206963</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>12793.115381</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>13018.983539</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>27879.747192</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>21193.287038</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>16619.916528</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>15432.067379</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>19638.096992</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>23441.704875</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>25066.785826</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>23532.422471</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>23378.897894</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>23824.470575</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>18895.622979</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>20833.734183</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>24530.300937</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>29236.445481</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>21268.372336</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>24308.177969</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>25198.156619</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>29560.362701</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>20099.27951</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>20685.202431</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>28533.001212</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>34022.816132</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>23854.768333</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>22635.435749</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>29255.986817</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>30590.238627</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>22386.399633</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>25051.458005</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>30394.177328</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>35595.138673</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>26291.219629</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>29840.503005</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>30028.327809</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>44334.717334</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>27288.516433</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>31747.549607</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>36142.157022</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>46292.311486</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>24182.516049</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>26771.06728</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>33678.767833</v>
       </c>
-      <c r="DW3">
+      <c r="DW3" t="n">
         <v>44704.922191</v>
       </c>
-      <c r="DX3">
+      <c r="DX3" t="n">
         <v>23659.569618</v>
       </c>
-      <c r="DY3">
+      <c r="DY3" t="n">
         <v>25967.311922</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" t="n">
         <v>32896.638438</v>
       </c>
-      <c r="EA3">
+      <c r="EA3" t="n">
         <v>45121.351805</v>
       </c>
-      <c r="EB3">
+      <c r="EB3" t="n">
         <v>26041.824737</v>
       </c>
-      <c r="EC3">
+      <c r="EC3" t="n">
         <v>26850.666936</v>
       </c>
-      <c r="ED3">
+      <c r="ED3" t="n">
         <v>41827.410892</v>
       </c>
-      <c r="EE3">
+      <c r="EE3" t="n">
         <v>49512.767328</v>
       </c>
-      <c r="EF3">
+      <c r="EF3" t="n">
         <v>28580.060501</v>
       </c>
-      <c r="EG3">
+      <c r="EG3" t="n">
         <v>29590.330955</v>
       </c>
-      <c r="EH3">
+      <c r="EH3" t="n">
         <v>41764.586763</v>
       </c>
-      <c r="EI3">
+      <c r="EI3" t="n">
         <v>46477.69531</v>
       </c>
-      <c r="EJ3">
+      <c r="EJ3" t="n">
         <v>28287.19439</v>
       </c>
-      <c r="EK3">
+      <c r="EK3" t="n">
         <v>32059.230683</v>
       </c>
-      <c r="EL3">
+      <c r="EL3" t="n">
         <v>46383.173318</v>
       </c>
-      <c r="EM3">
+      <c r="EM3" t="n">
         <v>46543.873836</v>
       </c>
-      <c r="EN3">
+      <c r="EN3" t="n">
         <v>29322.77269</v>
       </c>
-      <c r="EO3">
+      <c r="EO3" t="n">
         <v>34556.716018</v>
       </c>
-      <c r="EP3">
+      <c r="EP3" t="n">
         <v>41621.494206</v>
       </c>
-      <c r="EQ3">
+      <c r="EQ3" t="n">
         <v>51011.944782</v>
       </c>
-      <c r="ER3">
+      <c r="ER3" t="n">
         <v>30440.296522</v>
       </c>
-      <c r="ES3">
+      <c r="ES3" t="n">
         <v>36991.750708</v>
       </c>
-      <c r="ET3">
+      <c r="ET3" t="n">
         <v>43913.473162</v>
       </c>
-      <c r="EU3">
+      <c r="EU3" t="n">
         <v>49764.05792</v>
       </c>
-      <c r="EV3">
+      <c r="EV3" t="n">
         <v>29963.557788</v>
       </c>
-      <c r="EW3">
+      <c r="EW3" t="n">
         <v>39681.399716</v>
       </c>
-      <c r="EX3">
+      <c r="EX3" t="n">
         <v>45590.119112</v>
       </c>
-      <c r="EY3">
+      <c r="EY3" t="n">
         <v>56863.457331</v>
       </c>
-      <c r="EZ3">
+      <c r="EZ3" t="n">
         <v>29033.801313</v>
       </c>
-      <c r="FA3">
+      <c r="FA3" t="n">
         <v>37369.637843</v>
       </c>
-      <c r="FB3">
+      <c r="FB3" t="n">
         <v>35898.980272</v>
       </c>
-      <c r="FC3">
+      <c r="FC3" t="n">
         <v>44545.428469</v>
       </c>
-      <c r="FD3">
+      <c r="FD3" t="n">
         <v>25869.303393</v>
       </c>
-      <c r="FE3">
+      <c r="FE3" t="n">
         <v>31179.312999</v>
       </c>
-      <c r="FF3">
+      <c r="FF3" t="n">
         <v>36625.59718</v>
       </c>
-      <c r="FG3">
+      <c r="FG3" t="n">
         <v>46405.580659</v>
       </c>
-      <c r="FH3">
+      <c r="FH3" t="n">
         <v>26894.281056</v>
       </c>
-      <c r="FI3">
+      <c r="FI3" t="n">
         <v>34505.577305</v>
       </c>
-      <c r="FJ3">
+      <c r="FJ3" t="n">
         <v>42850.503783</v>
       </c>
-      <c r="FK3" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>178</v>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:169">
-      <c r="A4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>272324.315367543</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>251184.18187027</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>258453.667598673</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>250357.570993088</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>257855.693772627</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>230372.347728472</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>236334.498523461</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>217592.122818862</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>231392.420725845</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>207057.231001169</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>213189.393962385</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>200520.556334097</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>222557.65057044</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>206863.768880977</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>217685.922634712</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>207872.116901368</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>226157.218503698</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>214549.491292216</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>228777.750859016</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>223958.785319704</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>239078.143137084</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>231509.670495658</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>233280.142019833</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>249548.54758138</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>278274.741185551</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>247514.264075126</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>249747.872190061</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>264632.730467815</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>288381.671343426</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>258037.430915837</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>254232.675885406</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>273238.863572085</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>292749.225268959</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>258617.817276411</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>251014.169704041</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>271913.941173199</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>291940.201857249</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>261373.186867015</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>246195.204164729</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>264749.980237628</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>282618.84515712</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>244758.89448452</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>247320.801954933</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>276551.169569301</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>294173.809972187</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>258166.405662631</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>258506.429995088</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>286107.025809055</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>313285.522451696</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>275290.734543811</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>279857.613078026</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>304304.190084024</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>332221.360276487</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>288780.32056079</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>297286.791360719</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>323591.777218254</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>348507.353303504</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>295516.319836544</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>313127.235262449</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>337632.437153353</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>364998.533427695</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>301425.708235116</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>295516.319836544</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>313127.235262449</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>337632.437153353</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>364998.533427695</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>307193.895540455</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>316353.548519713</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>339124.438774342</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>359030.809299522</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>304491.957483799</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>319671.321723315</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>347565.780381957</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>372413.438810233</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>365732.941255</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>381171.436659</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>402145.161201</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>423739.384853</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>377686.761675</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>388680.962407</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>408925.978216</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>439847.217336</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>390248.381494</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>405861.772486</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>418406.412899</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>461390.86803</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>416141.45955</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>428076.704246</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>433214.51197</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>466728.076934</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>438495.704772</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>441748.879583</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>435153.190564</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>500631.733511</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>462705.827193</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>476393.992083</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>459446.173431</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>534471.113851</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>472379.809148</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>485379.423539</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>469736.405618</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>560378.631742</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>487594.554857</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>502454.26582</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>480718.619965</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>574467.3331930001</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>501463.119369</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>537748.871096</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>515575.415987</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>596432.850955</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>476408.456908</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>502794.538879</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>476404.243263</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>603011.569735</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>539878.945715</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>545147.551445</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>496710.156458</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>632749.147891</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>578145.503683</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>572119.709726</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>497746.062275</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>649180.503485</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>613036.003435</v>
       </c>
-      <c r="DW4">
+      <c r="DW4" t="n">
         <v>605356.977177</v>
       </c>
-      <c r="DX4">
+      <c r="DX4" t="n">
         <v>525719.425645</v>
       </c>
-      <c r="DY4">
+      <c r="DY4" t="n">
         <v>683507.024768</v>
       </c>
-      <c r="DZ4">
+      <c r="DZ4" t="n">
         <v>653750.79656</v>
       </c>
-      <c r="EA4">
+      <c r="EA4" t="n">
         <v>639489.457161</v>
       </c>
-      <c r="EB4">
+      <c r="EB4" t="n">
         <v>542919.421063</v>
       </c>
-      <c r="EC4">
+      <c r="EC4" t="n">
         <v>702600.7233909999</v>
       </c>
-      <c r="ED4">
+      <c r="ED4" t="n">
         <v>684807.83432</v>
       </c>
-      <c r="EE4">
+      <c r="EE4" t="n">
         <v>699981.540212</v>
       </c>
-      <c r="EF4">
+      <c r="EF4" t="n">
         <v>584461.563249</v>
       </c>
-      <c r="EG4">
+      <c r="EG4" t="n">
         <v>763608.683337</v>
       </c>
-      <c r="EH4">
+      <c r="EH4" t="n">
         <v>721235.839494</v>
       </c>
-      <c r="EI4">
+      <c r="EI4" t="n">
         <v>729547.244263</v>
       </c>
-      <c r="EJ4">
+      <c r="EJ4" t="n">
         <v>611043.290817</v>
       </c>
-      <c r="EK4">
+      <c r="EK4" t="n">
         <v>812458.013256</v>
       </c>
-      <c r="EL4">
+      <c r="EL4" t="n">
         <v>774691.209007</v>
       </c>
-      <c r="EM4">
+      <c r="EM4" t="n">
         <v>771782.0709</v>
       </c>
-      <c r="EN4">
+      <c r="EN4" t="n">
         <v>654654.526882</v>
       </c>
-      <c r="EO4">
+      <c r="EO4" t="n">
         <v>869811.5706560001</v>
       </c>
-      <c r="EP4">
+      <c r="EP4" t="n">
         <v>813257.8954949999</v>
       </c>
-      <c r="EQ4">
+      <c r="EQ4" t="n">
         <v>833566.402766</v>
       </c>
-      <c r="ER4">
+      <c r="ER4" t="n">
         <v>726370.401721</v>
       </c>
-      <c r="ES4">
+      <c r="ES4" t="n">
         <v>944446.732626</v>
       </c>
-      <c r="ET4">
+      <c r="ET4" t="n">
         <v>865404.297717</v>
       </c>
-      <c r="EU4">
+      <c r="EU4" t="n">
         <v>891569.74318</v>
       </c>
-      <c r="EV4">
+      <c r="EV4" t="n">
         <v>755189.1242289999</v>
       </c>
-      <c r="EW4">
+      <c r="EW4" t="n">
         <v>976168.015898</v>
       </c>
-      <c r="EX4">
+      <c r="EX4" t="n">
         <v>908331.251516</v>
       </c>
-      <c r="EY4">
+      <c r="EY4" t="n">
         <v>915460.216931</v>
       </c>
-      <c r="EZ4">
+      <c r="EZ4" t="n">
         <v>765769.781113</v>
       </c>
-      <c r="FA4">
+      <c r="FA4" t="n">
         <v>1030894.688027</v>
       </c>
-      <c r="FB4">
+      <c r="FB4" t="n">
         <v>878171.149717</v>
       </c>
-      <c r="FC4">
+      <c r="FC4" t="n">
         <v>721735.8528540001</v>
       </c>
-      <c r="FD4">
+      <c r="FD4" t="n">
         <v>686027.501653</v>
       </c>
-      <c r="FE4">
+      <c r="FE4" t="n">
         <v>980367.098507</v>
       </c>
-      <c r="FF4">
+      <c r="FF4" t="n">
         <v>885260.694332</v>
       </c>
-      <c r="FG4">
+      <c r="FG4" t="n">
         <v>883270.325698</v>
       </c>
-      <c r="FH4">
+      <c r="FH4" t="n">
         <v>734102.896323</v>
       </c>
-      <c r="FI4">
+      <c r="FI4" t="n">
         <v>1052103.005577</v>
       </c>
-      <c r="FJ4">
+      <c r="FJ4" t="n">
         <v>974739.717997</v>
       </c>
-      <c r="FK4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>178</v>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:169">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, steam, water and waste management</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>29567.5438698117</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>29832.4441310959</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>32169.7993777212</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>32068.5139837008</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>26380.9495502456</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>33104.7414763714</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>35114.8669884693</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>32746.3470052222</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>30370.0358378197</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>29622.0821588995</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>30673.892019881</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>31772.4489857948</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>30775.1774139014</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>33260.5651594797</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>33751.4097612712</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>36026.4355346532</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>36042.0179029639</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>34756.4725173199</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>26528.9820491985</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>33603.3772623181</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>28297.5808524785</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>33611.1684464736</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>34281.2102838395</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>36205.6327702278</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>34561.6929134345</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>34179.9248898191</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>36953.586449148</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>37405.4751301622</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>37592.4635498922</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>35971.8972455653</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>36821.1363185059</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>36797.7627660396</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>35901.7765881665</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>36828.9275026612</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>39220.8210383746</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>37584.6723657369</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>38698.8116999617</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>37062.6630273237</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>37740.4960488453</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>38878.0089355362</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>39657.1273510781</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>36789.9715818841</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>37943.066836886</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>39485.7212996587</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>43591.6753495642</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>41784.1206255072</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>43778.6637692941</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>44994.0884975395</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>49115.6249157555</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>44892.8031035189</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>50782.9383250151</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>53346.2379121476</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>54016.2797495135</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>49364.942808729</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>53579.9734368101</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>56906.8090711737</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>58363.7605082369</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>51258.2005584955</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>57865.1247222901</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>59228.5819494882</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>60373.8860203346</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>54943.4306640083</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>51258.2005584955</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>57865.1247222901</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>59228.5819494882</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>60373.8860203346</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>54052.5173805232</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>59729.7864711447</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>59387.4155641872</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>57252.9854214958</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>54238.0644743586</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>59410.5060349709</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>60717.4818733187</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>59354.5654300042</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>53466.297748</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>57772.251081</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>58312.483137</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>58200.823983</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>56881.098411</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>61454.710564</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>62765.806933</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>55131.782162</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>56941.308859</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>63990.523047</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>62517.585323</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>56631.286483</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>59650.244059</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>68771.05585800001</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>69452.87613999999</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>62273.457762</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>66034.710526</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>73761.47440200001</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>73840.14254299999</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>66573.449889</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>68329.03290799999</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>75761.784075</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>73907.852304</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>66095.988067</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>68055.581533</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>78330.73843500001</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>78391.92691900001</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>68665.879371</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>70110.730627</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>83008.697443</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>84393.34594499999</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>73192.120201</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>75883.526587</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>87689.343743</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>91083.67510399999</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>76393.686884</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>77481.672978</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>85266.933579</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>87389.831653</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>77807.054051</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>84965.82565699999</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>94119.848065</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>96503.515673</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>85392.41143199999</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>85068.766993</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>93565.839222</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>98638.118327</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>88337.11914900001</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>92765.40727500001</v>
       </c>
-      <c r="DW5">
+      <c r="DW5" t="n">
         <v>99696.47320199999</v>
       </c>
-      <c r="DX5">
+      <c r="DX5" t="n">
         <v>102195.595772</v>
       </c>
-      <c r="DY5">
+      <c r="DY5" t="n">
         <v>93182.684643</v>
       </c>
-      <c r="DZ5">
+      <c r="DZ5" t="n">
         <v>93859.07858</v>
       </c>
-      <c r="EA5">
+      <c r="EA5" t="n">
         <v>104994.643193</v>
       </c>
-      <c r="EB5">
+      <c r="EB5" t="n">
         <v>113356.016203</v>
       </c>
-      <c r="EC5">
+      <c r="EC5" t="n">
         <v>97439.79064799999</v>
       </c>
-      <c r="ED5">
+      <c r="ED5" t="n">
         <v>95886.26502399999</v>
       </c>
-      <c r="EE5">
+      <c r="EE5" t="n">
         <v>109939.780837</v>
       </c>
-      <c r="EF5">
+      <c r="EF5" t="n">
         <v>117273.788185</v>
       </c>
-      <c r="EG5">
+      <c r="EG5" t="n">
         <v>105336.736795</v>
       </c>
-      <c r="EH5">
+      <c r="EH5" t="n">
         <v>102357.09892</v>
       </c>
-      <c r="EI5">
+      <c r="EI5" t="n">
         <v>116842.235568</v>
       </c>
-      <c r="EJ5">
+      <c r="EJ5" t="n">
         <v>128159.535819</v>
       </c>
-      <c r="EK5">
+      <c r="EK5" t="n">
         <v>111407.11006</v>
       </c>
-      <c r="EL5">
+      <c r="EL5" t="n">
         <v>113469.661581</v>
       </c>
-      <c r="EM5">
+      <c r="EM5" t="n">
         <v>128647.023782</v>
       </c>
-      <c r="EN5">
+      <c r="EN5" t="n">
         <v>140160.022353</v>
       </c>
-      <c r="EO5">
+      <c r="EO5" t="n">
         <v>118195.072126</v>
       </c>
-      <c r="EP5">
+      <c r="EP5" t="n">
         <v>116383.118606</v>
       </c>
-      <c r="EQ5">
+      <c r="EQ5" t="n">
         <v>133661.204803</v>
       </c>
-      <c r="ER5">
+      <c r="ER5" t="n">
         <v>147042.776548</v>
       </c>
-      <c r="ES5">
+      <c r="ES5" t="n">
         <v>126073.531149</v>
       </c>
-      <c r="ET5">
+      <c r="ET5" t="n">
         <v>125341.565102</v>
       </c>
-      <c r="EU5">
+      <c r="EU5" t="n">
         <v>140761.853746</v>
       </c>
-      <c r="EV5">
+      <c r="EV5" t="n">
         <v>155651.584784</v>
       </c>
-      <c r="EW5">
+      <c r="EW5" t="n">
         <v>135275.198285</v>
       </c>
-      <c r="EX5">
+      <c r="EX5" t="n">
         <v>129544.106909</v>
       </c>
-      <c r="EY5">
+      <c r="EY5" t="n">
         <v>152195.862544</v>
       </c>
-      <c r="EZ5">
+      <c r="EZ5" t="n">
         <v>167019.937068</v>
       </c>
-      <c r="FA5">
+      <c r="FA5" t="n">
         <v>142552.08943</v>
       </c>
-      <c r="FB5">
+      <c r="FB5" t="n">
         <v>135881.679126</v>
       </c>
-      <c r="FC5">
+      <c r="FC5" t="n">
         <v>142477.07737</v>
       </c>
-      <c r="FD5">
+      <c r="FD5" t="n">
         <v>167302.854352</v>
       </c>
-      <c r="FE5">
+      <c r="FE5" t="n">
         <v>143551.425013</v>
       </c>
-      <c r="FF5">
+      <c r="FF5" t="n">
         <v>137399.455655</v>
       </c>
-      <c r="FG5">
+      <c r="FG5" t="n">
         <v>155966.596414</v>
       </c>
-      <c r="FH5">
+      <c r="FH5" t="n">
         <v>172369.746833</v>
       </c>
-      <c r="FI5">
+      <c r="FI5" t="n">
         <v>149769.622399</v>
       </c>
-      <c r="FJ5">
+      <c r="FJ5" t="n">
         <v>145338.002295</v>
       </c>
-      <c r="FK5" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>178</v>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:169">
-      <c r="A6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>136600.002190956</v>
       </c>
-      <c r="D6">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
         <v>149655.334392305</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>143370.451662392</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>198679.252012949</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>127649.083200978</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>163590.183710376</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>167172.383633694</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>151496.823355442</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>99119.74672729379</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>95510.0618940788</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>70315.5611546335</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>77342.5364517806</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>63600.0815029923</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>54768.2637892376</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>58716.9291778561</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>76994.3942597447</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>78194.56865860549</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>47631.3488525003</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>45121.0604151883</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>74392.4894561074</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>114144.830804636</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>57150.2893136943</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>67145.6348797798</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>66055.4001205091</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>71946.332475223</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>99339.6260064745</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>62125.0580051556</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>78780.913403087</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>75647.6336747634</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>148794.140548847</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>87750.15566632969</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>91882.0537875986</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>82308.1435066094</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>121547.433203716</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>63361.8789505465</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>78130.4372021778</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>75299.49148272751</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>106476.540943212</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>78670.9737634968</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>85203.2206824876</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>84818.4319439213</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>83517.4795421029</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>83086.88262037421</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>96352.9324642712</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>88941.1684285579</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>82912.8115243561</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>92092.77143014679</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>97571.430136397</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>92596.6614449356</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>100457.345675643</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>100851.296050841</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>100759.679684516</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>100274.112942992</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>105734.448375977</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>108473.777729102</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>110168.680506119</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>113072.91931863</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>120310.612258325</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>131570.263679699</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>130553.322013489</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>133585.823738855</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>129453.925617586</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>133063.610450801</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>131570.263679699</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>130553.322013489</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>133585.823738855</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>129453.925617586</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>139753.736988037</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>129351.081885936</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>106211.694203668</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>107481.852211347</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>101162.25791866</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>105635.757698087</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>100983.052452422</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>101274.018004944</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>89985.702739</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>94248.936134</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>97160.471091</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>94944.165299</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>81597.387959</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>91334.47207</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>92943.38705400001</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>91542.411389</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>75421.978229</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>95950.364128</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>87567.357534</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>90329.939724</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>80654.858787</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>94613.77516400001</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>93743.14653100001</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>97871.42333600001</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>80959.28262500001</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>105808.831687</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>95543.77443799999</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>105922.434414</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>81502.913224</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>107814.127624</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>95555.73440099999</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>99956.913753</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>92935.840045</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>116330.201756</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>105910.82291</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>110060.370671</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>104245.633202</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>143218.510287</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>109442.718515</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>118782.128364</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>98567.401358</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>137743.674112</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>135150.147893</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>140557.856298</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>114385.974413</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>164483.231143</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>132891.74295</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>137206.003347</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>124308.067004</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>208293.595445</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>161455.15168</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>155099.959938</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>136669.944246</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>164010.135935</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>148803.107919</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>166136.337911</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>139860.726477</v>
       </c>
-      <c r="DW6">
+      <c r="DW6" t="n">
         <v>185360.242445</v>
       </c>
-      <c r="DX6">
+      <c r="DX6" t="n">
         <v>181835.904562</v>
       </c>
-      <c r="DY6">
+      <c r="DY6" t="n">
         <v>223582.723832</v>
       </c>
-      <c r="DZ6">
+      <c r="DZ6" t="n">
         <v>198539.097299</v>
       </c>
-      <c r="EA6">
+      <c r="EA6" t="n">
         <v>227664.989412</v>
       </c>
-      <c r="EB6">
+      <c r="EB6" t="n">
         <v>198184.010707</v>
       </c>
-      <c r="EC6">
+      <c r="EC6" t="n">
         <v>220810.240495</v>
       </c>
-      <c r="ED6">
+      <c r="ED6" t="n">
         <v>193493.167924</v>
       </c>
-      <c r="EE6">
+      <c r="EE6" t="n">
         <v>240949.855304</v>
       </c>
-      <c r="EF6">
+      <c r="EF6" t="n">
         <v>218519.335316</v>
       </c>
-      <c r="EG6">
+      <c r="EG6" t="n">
         <v>255102.710988</v>
       </c>
-      <c r="EH6">
+      <c r="EH6" t="n">
         <v>202224.45182</v>
       </c>
-      <c r="EI6">
+      <c r="EI6" t="n">
         <v>282119.962015</v>
       </c>
-      <c r="EJ6">
+      <c r="EJ6" t="n">
         <v>241370.491703</v>
       </c>
-      <c r="EK6">
+      <c r="EK6" t="n">
         <v>286035.978111</v>
       </c>
-      <c r="EL6">
+      <c r="EL6" t="n">
         <v>223327.338367</v>
       </c>
-      <c r="EM6">
+      <c r="EM6" t="n">
         <v>319760.343338</v>
       </c>
-      <c r="EN6">
+      <c r="EN6" t="n">
         <v>278135.081469</v>
       </c>
-      <c r="EO6">
+      <c r="EO6" t="n">
         <v>311901.295961</v>
       </c>
-      <c r="EP6">
+      <c r="EP6" t="n">
         <v>249396.686203</v>
       </c>
-      <c r="EQ6">
+      <c r="EQ6" t="n">
         <v>337552.952312</v>
       </c>
-      <c r="ER6">
+      <c r="ER6" t="n">
         <v>291075.897833</v>
       </c>
-      <c r="ES6">
+      <c r="ES6" t="n">
         <v>323688.49686</v>
       </c>
-      <c r="ET6">
+      <c r="ET6" t="n">
         <v>271181.26325</v>
       </c>
-      <c r="EU6">
+      <c r="EU6" t="n">
         <v>374720.430047</v>
       </c>
-      <c r="EV6">
+      <c r="EV6" t="n">
         <v>333386.666137</v>
       </c>
-      <c r="EW6">
+      <c r="EW6" t="n">
         <v>394553.058354</v>
       </c>
-      <c r="EX6">
+      <c r="EX6" t="n">
         <v>288139.438491</v>
       </c>
-      <c r="EY6">
+      <c r="EY6" t="n">
         <v>384726.503336</v>
       </c>
-      <c r="EZ6">
+      <c r="EZ6" t="n">
         <v>389326.563901</v>
       </c>
-      <c r="FA6">
+      <c r="FA6" t="n">
         <v>445051.242023</v>
       </c>
-      <c r="FB6">
+      <c r="FB6" t="n">
         <v>288638.332306</v>
       </c>
-      <c r="FC6">
+      <c r="FC6" t="n">
         <v>272663.610195</v>
       </c>
-      <c r="FD6">
+      <c r="FD6" t="n">
         <v>235255.653929</v>
       </c>
-      <c r="FE6">
+      <c r="FE6" t="n">
         <v>325750.452836</v>
       </c>
-      <c r="FF6">
+      <c r="FF6" t="n">
         <v>223502.195622</v>
       </c>
-      <c r="FG6">
+      <c r="FG6" t="n">
         <v>347357.970289</v>
       </c>
-      <c r="FH6">
+      <c r="FH6" t="n">
         <v>277594.864744</v>
       </c>
-      <c r="FI6">
+      <c r="FI6" t="n">
         <v>386355.858399</v>
       </c>
-      <c r="FJ6">
+      <c r="FJ6" t="n">
         <v>253597.584418</v>
       </c>
-      <c r="FK6" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>178</v>
+      <c r="FK6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:169">
-      <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>481355.485690919</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>492502.786939106</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>471928.350524792</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>495763.340815181</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>506793.209273884</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>512286.228249626</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>505148.072935264</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>542981.238781222</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>532937.889180011</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>552014.167856427</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>534790.6185851441</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>550781.293868413</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>497046.365578562</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>531863.486176983</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>477006.839724089</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>532693.332230363</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>475453.236698753</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>504837.553565027</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>470444.672010476</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>549094.6374257409</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>478237.675719856</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>519833.166731017</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>508612.082006621</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>578004.5174325031</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>508354.230872418</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>547205.3830646609</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>527843.650025269</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>608293.37180765</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>535618.726787535</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>581069.7716621259</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>570092.790659065</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>656096.464511272</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>578759.070033469</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>621471.435953407</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>608059.075956021</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>693435.307357101</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>608731.873869552</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>649655.546999289</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>640317.035557969</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>718058.492363186</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>619000.733603207</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>649832.7094461049</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>634760.155067549</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>720756.3790631359</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>627081.009444908</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>654656.73894041</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>638177.081303529</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>731380.380931149</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>639915.297079061</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>670412.8605327189</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>656846.281483649</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>750583.730554568</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>663593.449218128</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>699957.6161796449</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>686762.6766593941</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>780323.333612831</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>693755.838724072</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>732329.150963466</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>723070.750785216</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>816326.5385772421</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>734364.530405577</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>778855.864944913</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>768650.608149629</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>868795.689819878</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>778258.293045012</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>823289.219988748</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>808373.828146628</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>907870.640039606</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>809221.263269765</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>854904.426476853</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>833258.116210737</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>915344.233422638</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>837977.3168852601</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>893194.1560265051</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>873085.716136366</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>964311.407531864</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>866882.214111</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>928901.9545399999</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>908635.353531</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>983626.722461</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>896064.757005</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>962350.309248</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>946040.27709</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>1025598.127057</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>927788.23199</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>997744.686506</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>979811.964429</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>1069175.756275</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>966693.574995</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>1045047.248578</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>1031607.290285</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>1142087.674028</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>1047483.071867</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>1147573.368788</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>1127532.448547</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>1209973.467153</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>1119862.674919</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>1211343.005845</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>1177276.520337</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>1263488.432488</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>1171338.80965</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>1295854.056088</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>1237942.557401</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>1372892.05213</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>1259497.921319</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>1387226.801026</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>1341944.566421</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>1480148.472074</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>1324379.794738</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>1463429.714782</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>1391412.528033</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>1507730.091605</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>1352692.21308</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>1512309.495956</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>1460480.842947</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>1556291.349604</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>1467795.520569</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>1632626.043163</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>1575185.996709</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>1650429.378844</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>1516676.087964</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>1722428.149795</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>1658607.082727</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>1755284.670063</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>1636802.896113</v>
       </c>
-      <c r="DW7">
+      <c r="DW7" t="n">
         <v>1846608.168874</v>
       </c>
-      <c r="DX7">
+      <c r="DX7" t="n">
         <v>1783637.274953</v>
       </c>
-      <c r="DY7">
+      <c r="DY7" t="n">
         <v>1876996.581904</v>
       </c>
-      <c r="DZ7">
+      <c r="DZ7" t="n">
         <v>1740366.437071</v>
       </c>
-      <c r="EA7">
+      <c r="EA7" t="n">
         <v>1996354.617731</v>
       </c>
-      <c r="EB7">
+      <c r="EB7" t="n">
         <v>1928829.78854</v>
       </c>
-      <c r="EC7">
+      <c r="EC7" t="n">
         <v>2019382.35194</v>
       </c>
-      <c r="ED7">
+      <c r="ED7" t="n">
         <v>1874875.096147</v>
       </c>
-      <c r="EE7">
+      <c r="EE7" t="n">
         <v>2134712.815067</v>
       </c>
-      <c r="EF7">
+      <c r="EF7" t="n">
         <v>2057330.903795</v>
       </c>
-      <c r="EG7">
+      <c r="EG7" t="n">
         <v>2134249.743997</v>
       </c>
-      <c r="EH7">
+      <c r="EH7" t="n">
         <v>1990037.003104</v>
       </c>
-      <c r="EI7">
+      <c r="EI7" t="n">
         <v>2290569.745117</v>
       </c>
-      <c r="EJ7">
+      <c r="EJ7" t="n">
         <v>2217846.868452</v>
       </c>
-      <c r="EK7">
+      <c r="EK7" t="n">
         <v>2310720.119062</v>
       </c>
-      <c r="EL7">
+      <c r="EL7" t="n">
         <v>2158135.11296</v>
       </c>
-      <c r="EM7">
+      <c r="EM7" t="n">
         <v>2491165.509423</v>
       </c>
-      <c r="EN7">
+      <c r="EN7" t="n">
         <v>2374883.865471</v>
       </c>
-      <c r="EO7">
+      <c r="EO7" t="n">
         <v>2505064.671949</v>
       </c>
-      <c r="EP7">
+      <c r="EP7" t="n">
         <v>2311726.348227</v>
       </c>
-      <c r="EQ7">
+      <c r="EQ7" t="n">
         <v>2674944.867675</v>
       </c>
-      <c r="ER7">
+      <c r="ER7" t="n">
         <v>2559290.001797</v>
       </c>
-      <c r="ES7">
+      <c r="ES7" t="n">
         <v>2684300.991215</v>
       </c>
-      <c r="ET7">
+      <c r="ET7" t="n">
         <v>2471220.167237</v>
       </c>
-      <c r="EU7">
+      <c r="EU7" t="n">
         <v>2856770.716281</v>
       </c>
-      <c r="EV7">
+      <c r="EV7" t="n">
         <v>2734477.623975</v>
       </c>
-      <c r="EW7">
+      <c r="EW7" t="n">
         <v>2857579.964772</v>
       </c>
-      <c r="EX7">
+      <c r="EX7" t="n">
         <v>2650701.046455</v>
       </c>
-      <c r="EY7">
+      <c r="EY7" t="n">
         <v>3066860.724086</v>
       </c>
-      <c r="EZ7">
+      <c r="EZ7" t="n">
         <v>2924291.73086</v>
       </c>
-      <c r="FA7">
+      <c r="FA7" t="n">
         <v>3069173.265877</v>
       </c>
-      <c r="FB7">
+      <c r="FB7" t="n">
         <v>2655494.986561</v>
       </c>
-      <c r="FC7">
+      <c r="FC7" t="n">
         <v>2545506.037184</v>
       </c>
-      <c r="FD7">
+      <c r="FD7" t="n">
         <v>2616158.854618</v>
       </c>
-      <c r="FE7">
+      <c r="FE7" t="n">
         <v>2824977.123926</v>
       </c>
-      <c r="FF7">
+      <c r="FF7" t="n">
         <v>2548496.994154</v>
       </c>
-      <c r="FG7">
+      <c r="FG7" t="n">
         <v>2796474.311747</v>
       </c>
-      <c r="FH7">
+      <c r="FH7" t="n">
         <v>2816586.022762</v>
       </c>
-      <c r="FI7">
+      <c r="FI7" t="n">
         <v>3051654.157706</v>
       </c>
-      <c r="FJ7">
+      <c r="FJ7" t="n">
         <v>2766869.721846</v>
       </c>
-      <c r="FK7" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>178</v>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:169">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
         <v>150869.180128916</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>164407.845797539</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>172054.19258851</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>173709.508974242</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>168690.407456037</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>144999.640834556</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>165167.165240535</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>151810.736238232</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>173094.460225415</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>142865.953199736</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>160641.621360278</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>144255.507780419</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>181219.178265475</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>145948.790138301</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>170421.655786069</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>155440.283175754</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>188166.95116889</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>151992.972904551</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>171446.737034114</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>165250.690379264</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>194985.639766996</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>156389.432479499</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>178774.169659027</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>176511.397718898</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>211045.245986366</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>168318.340928969</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>191128.296996575</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>191720.566162112</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>228874.066507917</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>176336.754247009</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>198189.96781644</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>201455.041421324</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>239739.927737193</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>180459.858822478</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>198934.100870576</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>199883.250174322</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>240802.974957386</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>182768.189929187</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>201827.107948392</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>203155.916973635</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>245829.669670023</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>186283.83895026</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>206215.97432891</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>209336.777239625</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>252238.325768911</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>193672.017130613</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>214302.72639682</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>217347.597363234</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>262496.731443788</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>203657.067806013</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>226611.294567788</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>229754.877061792</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>277204.749054626</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>214894.995562357</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>238828.744405598</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>242913.883008916</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>292353.171942401</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>225320.451514694</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>249185.861608065</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>253316.559377964</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>299733.756928322</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>225320.451514694</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>249185.861608065</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>253316.559377964</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>299733.756928322</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>223630.57960058</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>243356.84499192</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>246339.966120421</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>297154.979341288</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>237317.278224899</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>263734.592296451</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>271390.252282727</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>326505.379004321</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>276284.028466</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>308488.142439</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>314609.483328</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>360767.9713</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>289115.058662</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>323026.574232</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>333163.330597</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>373233.658172</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>298310.137804</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>335619.694597</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>341639.625109</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>386032.691343</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>309491.371106</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>349222.306163</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>353852.49674</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>412731.571866</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>332652.352783</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>373865.076318</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>381939.093564</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>437431.722046</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>348926.740865</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>396389.337891</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>398086.459409</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>460191.217905</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>363612.105576</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>415728.085774</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>422058.745403</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>495836.221034</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>392750.191201</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>446640.979572</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>461896.493081</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>536126.244204</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>393118.127302</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>462043.443822</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>468247.605513</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>538143.579021</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>385021.567035</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>461191.118187</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>472535.19713</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>558443.511816</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>437376.901723</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>497342.566244</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>519928.212766</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>575666.07784</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>442831.209824</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>508245.713148</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>544768.293693</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>598068.111017</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>469777.176648</v>
       </c>
-      <c r="DW8">
+      <c r="DW8" t="n">
         <v>542305.340724</v>
       </c>
-      <c r="DX8">
+      <c r="DX8" t="n">
         <v>598166.729265</v>
       </c>
-      <c r="DY8">
+      <c r="DY8" t="n">
         <v>635203.617412</v>
       </c>
-      <c r="DZ8">
+      <c r="DZ8" t="n">
         <v>492523.731135</v>
       </c>
-      <c r="EA8">
+      <c r="EA8" t="n">
         <v>578599.6456329999</v>
       </c>
-      <c r="EB8">
+      <c r="EB8" t="n">
         <v>634153.84478</v>
       </c>
-      <c r="EC8">
+      <c r="EC8" t="n">
         <v>675804.946072</v>
       </c>
-      <c r="ED8">
+      <c r="ED8" t="n">
         <v>524822.530495</v>
       </c>
-      <c r="EE8">
+      <c r="EE8" t="n">
         <v>614911.111786</v>
       </c>
-      <c r="EF8">
+      <c r="EF8" t="n">
         <v>672383.6753539999</v>
       </c>
-      <c r="EG8">
+      <c r="EG8" t="n">
         <v>694417.875688</v>
       </c>
-      <c r="EH8">
+      <c r="EH8" t="n">
         <v>553924.502477</v>
       </c>
-      <c r="EI8">
+      <c r="EI8" t="n">
         <v>655136.4532700001</v>
       </c>
-      <c r="EJ8">
+      <c r="EJ8" t="n">
         <v>722259.028939</v>
       </c>
-      <c r="EK8">
+      <c r="EK8" t="n">
         <v>738973.993392</v>
       </c>
-      <c r="EL8">
+      <c r="EL8" t="n">
         <v>591297.482216</v>
       </c>
-      <c r="EM8">
+      <c r="EM8" t="n">
         <v>710314.738172</v>
       </c>
-      <c r="EN8">
+      <c r="EN8" t="n">
         <v>765702.5719</v>
       </c>
-      <c r="EO8">
+      <c r="EO8" t="n">
         <v>793745.703972</v>
       </c>
-      <c r="EP8">
+      <c r="EP8" t="n">
         <v>633595.642403</v>
       </c>
-      <c r="EQ8">
+      <c r="EQ8" t="n">
         <v>751456.628101</v>
       </c>
-      <c r="ER8">
+      <c r="ER8" t="n">
         <v>819211.073043</v>
       </c>
-      <c r="ES8">
+      <c r="ES8" t="n">
         <v>853289.003791</v>
       </c>
-      <c r="ET8">
+      <c r="ET8" t="n">
         <v>666889.864272</v>
       </c>
-      <c r="EU8">
+      <c r="EU8" t="n">
         <v>798756.208335</v>
       </c>
-      <c r="EV8">
+      <c r="EV8" t="n">
         <v>862991.56223</v>
       </c>
-      <c r="EW8">
+      <c r="EW8" t="n">
         <v>908666.864278</v>
       </c>
-      <c r="EX8">
+      <c r="EX8" t="n">
         <v>713570.8680510001</v>
       </c>
-      <c r="EY8">
+      <c r="EY8" t="n">
         <v>867097.628516</v>
       </c>
-      <c r="EZ8">
+      <c r="EZ8" t="n">
         <v>934753.183358</v>
       </c>
-      <c r="FA8">
+      <c r="FA8" t="n">
         <v>973877.7187</v>
       </c>
-      <c r="FB8">
+      <c r="FB8" t="n">
         <v>723510.457624</v>
       </c>
-      <c r="FC8">
+      <c r="FC8" t="n">
         <v>744588.678874</v>
       </c>
-      <c r="FD8">
+      <c r="FD8" t="n">
         <v>876132.1872780001</v>
       </c>
-      <c r="FE8">
+      <c r="FE8" t="n">
         <v>931305.48924</v>
       </c>
-      <c r="FF8">
+      <c r="FF8" t="n">
         <v>698808.418984</v>
       </c>
-      <c r="FG8">
+      <c r="FG8" t="n">
         <v>784583.723129</v>
       </c>
-      <c r="FH8">
+      <c r="FH8" t="n">
         <v>933154.089046</v>
       </c>
-      <c r="FI8">
+      <c r="FI8" t="n">
         <v>997780.097056</v>
       </c>
-      <c r="FJ8">
+      <c r="FJ8" t="n">
         <v>749925.921031</v>
       </c>
-      <c r="FK8" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>178</v>
+      <c r="FK8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:169">
-      <c r="A9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
         <v>37949.0081605677</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>39779.7452672508</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>50112.5496151404</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>48848.0998338295</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>46823.4287116078</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>44224.7129033924</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>42642.2113365985</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>35528.7116466476</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>33604.8862125058</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>30781.2069462658</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>32099.9582519274</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>34729.703502629</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>35218.4172217859</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>33116.172493349</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>35055.5126487336</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>36894.0071160384</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>38577.3543709122</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>37025.8822466045</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>38903.1635170168</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>42704.2702215708</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>47878.4297561372</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>44744.4560650356</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>45403.8317178663</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>43611.8814142909</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>51214.0948233989</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>49220.4531436633</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>55286.7091497067</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>49639.3506172266</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>57326.8949931715</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>53106.8908150542</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>60491.8981267592</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>57761.3071879776</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>61112.4869764824</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>55527.1873289744</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>58071.6016128391</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>54487.7010056881</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>57761.3071879776</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>55969.3568844022</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>57823.3660729499</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>54604.0614150112</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>58250.0209071344</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>56489.1000460452</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>58808.5508718854</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>56450.3132429375</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>60266.9346687346</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>59328.2940335284</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>61950.2819236085</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>59498.9559672022</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>63936.1662427225</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>62927.7093619224</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>66410.7642809934</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>64052.5266520455</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>69211.1714653688</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>70312.71667362739</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>74687.8680641751</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>73260.513709812</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>80498.13116970781</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>81312.65403496919</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>84190.63482556021</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>82802.0672743046</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>81312.65403496919</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>84190.63482556021</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>82802.0672743046</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>89209.64714769561</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>94277.46868794929</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>96940.3402492764</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>96777.21772589019</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>101462.88366382</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>96981.2816230218</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>100786.508504556</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>100571.53248267</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>105799.47987516</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>80370.874425</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>86040.819343</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>85689.50793199999</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>88918.366419</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>85555.36539799999</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>91644.81746799999</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>87501.243199</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>93182.153003</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>89233.31312000001</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>97950.829229</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>92797.879065</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>100011.574198</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>94744.416568</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>106525.800742</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>100020.04485</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>106616.841462</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>102341.609472</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>115466.527791</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>110473.391694</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>116018.610169</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>115502.559651</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>125676.188094</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>127645.446524</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>121044.095135</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>123973.548435</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>158375.91693</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>125013.194069</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>148186.704331</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>139948.216447</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>173148.425072</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>138173.497788</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>167396.51329</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>156842.956966</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>179346.265161</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>140188.488049</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>160850.731777</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>160676.449226</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>185349.674073</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>163839.100619</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>170322.191999</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>176243.665913</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>198367.852772</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>187443.990239</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>195845.240672</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>189599.848232</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>223809.677542</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>192337.857509</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>201130.977118</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>208649.254382</v>
       </c>
-      <c r="DW9">
+      <c r="DW9" t="n">
         <v>242488.067794</v>
       </c>
-      <c r="DX9">
+      <c r="DX9" t="n">
         <v>211374.064024</v>
       </c>
-      <c r="DY9">
+      <c r="DY9" t="n">
         <v>221462.768832</v>
       </c>
-      <c r="DZ9">
+      <c r="DZ9" t="n">
         <v>249065.500995</v>
       </c>
-      <c r="EA9">
+      <c r="EA9" t="n">
         <v>270237.691245</v>
       </c>
-      <c r="EB9">
+      <c r="EB9" t="n">
         <v>239746.053383</v>
       </c>
-      <c r="EC9">
+      <c r="EC9" t="n">
         <v>247789.518975</v>
       </c>
-      <c r="ED9">
+      <c r="ED9" t="n">
         <v>266284.89705</v>
       </c>
-      <c r="EE9">
+      <c r="EE9" t="n">
         <v>289837.46762</v>
       </c>
-      <c r="EF9">
+      <c r="EF9" t="n">
         <v>262866.573082</v>
       </c>
-      <c r="EG9">
+      <c r="EG9" t="n">
         <v>273049.262588</v>
       </c>
-      <c r="EH9">
+      <c r="EH9" t="n">
         <v>281197.640962</v>
       </c>
-      <c r="EI9">
+      <c r="EI9" t="n">
         <v>310326.191902</v>
       </c>
-      <c r="EJ9">
+      <c r="EJ9" t="n">
         <v>280390.323751</v>
       </c>
-      <c r="EK9">
+      <c r="EK9" t="n">
         <v>300079.528181</v>
       </c>
-      <c r="EL9">
+      <c r="EL9" t="n">
         <v>311568.010723</v>
       </c>
-      <c r="EM9">
+      <c r="EM9" t="n">
         <v>334507.576059</v>
       </c>
-      <c r="EN9">
+      <c r="EN9" t="n">
         <v>306670.595194</v>
       </c>
-      <c r="EO9">
+      <c r="EO9" t="n">
         <v>322940.862837</v>
       </c>
-      <c r="EP9">
+      <c r="EP9" t="n">
         <v>335737.872963</v>
       </c>
-      <c r="EQ9">
+      <c r="EQ9" t="n">
         <v>368285.8765</v>
       </c>
-      <c r="ER9">
+      <c r="ER9" t="n">
         <v>336078.553659</v>
       </c>
-      <c r="ES9">
+      <c r="ES9" t="n">
         <v>342418.281393</v>
       </c>
-      <c r="ET9">
+      <c r="ET9" t="n">
         <v>364961.720882</v>
       </c>
-      <c r="EU9">
+      <c r="EU9" t="n">
         <v>400121.615383</v>
       </c>
-      <c r="EV9">
+      <c r="EV9" t="n">
         <v>364315.665558</v>
       </c>
-      <c r="EW9">
+      <c r="EW9" t="n">
         <v>368747.705788</v>
       </c>
-      <c r="EX9">
+      <c r="EX9" t="n">
         <v>409049.990365</v>
       </c>
-      <c r="EY9">
+      <c r="EY9" t="n">
         <v>442933.095595</v>
       </c>
-      <c r="EZ9">
+      <c r="EZ9" t="n">
         <v>411062.11995</v>
       </c>
-      <c r="FA9">
+      <c r="FA9" t="n">
         <v>413402.895595</v>
       </c>
-      <c r="FB9">
+      <c r="FB9" t="n">
         <v>445247.941266</v>
       </c>
-      <c r="FC9">
+      <c r="FC9" t="n">
         <v>464072.828579</v>
       </c>
-      <c r="FD9">
+      <c r="FD9" t="n">
         <v>428205.447654</v>
       </c>
-      <c r="FE9">
+      <c r="FE9" t="n">
         <v>432426.279824</v>
       </c>
-      <c r="FF9">
+      <c r="FF9" t="n">
         <v>464504.390475</v>
       </c>
-      <c r="FG9">
+      <c r="FG9" t="n">
         <v>488304.500877</v>
       </c>
-      <c r="FH9">
+      <c r="FH9" t="n">
         <v>444750.051609</v>
       </c>
-      <c r="FI9">
+      <c r="FI9" t="n">
         <v>455595.479378</v>
       </c>
-      <c r="FJ9">
+      <c r="FJ9" t="n">
         <v>498115.453269</v>
       </c>
-      <c r="FK9" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>178</v>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:169">
-      <c r="A10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public administration and defense; compulsory social activities</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
         <v>51592.2755247595</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>53264.1116276085</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>49810.4502046179</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>52178.8846836539</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>52904.8135177857</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>49348.4954919886</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>49187.1779732925</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>47163.3763751071</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>57993.6479711942</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>46738.0847349086</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>45418.2141273963</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>48424.5860667299</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>64028.38969332</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>47896.637823725</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>47295.3634358582</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>50426.3898214568</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>64827.6446723137</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>50323.7332186504</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>48989.1973821658</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>52076.2280808471</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>66477.482931704</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>50118.4200130375</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>54877.2868145679</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>59291.520735248</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>72717.5378594427</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>58785.5703357016</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>58198.9611768074</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>57561.0237165095</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>70796.3928640637</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>64160.3767540713</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>63713.0872704144</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>64468.3465624907</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>74602.019782391</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>65641.5648802795</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>64834.9772867998</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>65575.5713499039</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>74851.32867492099</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>65597.5691933624</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>66176.84573777069</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>63903.735247055</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>75877.8947029863</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>67042.0942471399</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>68647.9368196131</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>66756.1222821788</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>76647.819224035</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>71067.6996000525</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>72614.88125663641</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>70737.73194817441</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>79918.1652848712</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>73384.80577768529</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>74997.9809646447</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>73854.0931048007</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>83122.5178153317</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>79250.89736662871</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>80864.0725535884</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>76603.8235371179</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>86642.1727686979</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>81069.3857592014</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>84222.4099882586</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>78165.6704226742</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>81069.3857592014</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>84222.4099882586</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>78165.6704226742</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>88116.02828041989</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>85921.55571108</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>92347.7139379596</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>83430.51331302051</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>91796.5684556777</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>85969.90142703459</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>93284.6352774908</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>82014.9860609131</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>90680.33599658711</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>82051.01630800001</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>86773.00859100001</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>78220.861951</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>83327.602423</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>84122.737092</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>88117.59272</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>79774.161662</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>85850.841697</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>84696.29309799999</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>88638.563666</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>81209.804829</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>87767.67576899999</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>86107.382102</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>90285.338871</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>85898.653337</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>93312.291277</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>94621.27484300001</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>101049.378993</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>94292.61504</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>93956.24156900001</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>100964.992136</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>102475.421215</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>92218.93853</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>92369.964496</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>102676.852273</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>107145.47789</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>96686.35371700001</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>96996.533597</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>105052.080391</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>109061.731362</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>99016.405847</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>97837.410292</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>107723.731826</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>111024.196167</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>101074.158498</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>101354.834485</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>109183.170298</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>122544.633934</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>110762.228073</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>106145.304449</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>117825.478299</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>134806.606036</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>118465.139261</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>105759.087292</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>111144.4335</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>141214.575996</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>123999.526052</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>111666.121057</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>117146.175482</v>
       </c>
-      <c r="DW10">
+      <c r="DW10" t="n">
         <v>147840.086692</v>
       </c>
-      <c r="DX10">
+      <c r="DX10" t="n">
         <v>131061.833778</v>
       </c>
-      <c r="DY10">
+      <c r="DY10" t="n">
         <v>122135.447146</v>
       </c>
-      <c r="DZ10">
+      <c r="DZ10" t="n">
         <v>122545.562735</v>
       </c>
-      <c r="EA10">
+      <c r="EA10" t="n">
         <v>155484.397808</v>
       </c>
-      <c r="EB10">
+      <c r="EB10" t="n">
         <v>137966.633863</v>
       </c>
-      <c r="EC10">
+      <c r="EC10" t="n">
         <v>118468.015478</v>
       </c>
-      <c r="ED10">
+      <c r="ED10" t="n">
         <v>131624.302677</v>
       </c>
-      <c r="EE10">
+      <c r="EE10" t="n">
         <v>159013.598972</v>
       </c>
-      <c r="EF10">
+      <c r="EF10" t="n">
         <v>135279.006232</v>
       </c>
-      <c r="EG10">
+      <c r="EG10" t="n">
         <v>132687.678622</v>
       </c>
-      <c r="EH10">
+      <c r="EH10" t="n">
         <v>126938.052288</v>
       </c>
-      <c r="EI10">
+      <c r="EI10" t="n">
         <v>158517.75904</v>
       </c>
-      <c r="EJ10">
+      <c r="EJ10" t="n">
         <v>139371.323823</v>
       </c>
-      <c r="EK10">
+      <c r="EK10" t="n">
         <v>142969.434768</v>
       </c>
-      <c r="EL10">
+      <c r="EL10" t="n">
         <v>133891.476604</v>
       </c>
-      <c r="EM10">
+      <c r="EM10" t="n">
         <v>169124.378348</v>
       </c>
-      <c r="EN10">
+      <c r="EN10" t="n">
         <v>144926.719656</v>
       </c>
-      <c r="EO10">
+      <c r="EO10" t="n">
         <v>162632.30152</v>
       </c>
-      <c r="EP10">
+      <c r="EP10" t="n">
         <v>143366.736055</v>
       </c>
-      <c r="EQ10">
+      <c r="EQ10" t="n">
         <v>185937.973074</v>
       </c>
-      <c r="ER10">
+      <c r="ER10" t="n">
         <v>158892.659037</v>
       </c>
-      <c r="ES10">
+      <c r="ES10" t="n">
         <v>178195.91189</v>
       </c>
-      <c r="ET10">
+      <c r="ET10" t="n">
         <v>162305.481888</v>
       </c>
-      <c r="EU10">
+      <c r="EU10" t="n">
         <v>213847.262832</v>
       </c>
-      <c r="EV10">
+      <c r="EV10" t="n">
         <v>187223.220143</v>
       </c>
-      <c r="EW10">
+      <c r="EW10" t="n">
         <v>204330.146161</v>
       </c>
-      <c r="EX10">
+      <c r="EX10" t="n">
         <v>181491.096823</v>
       </c>
-      <c r="EY10">
+      <c r="EY10" t="n">
         <v>238355.579891</v>
       </c>
-      <c r="EZ10">
+      <c r="EZ10" t="n">
         <v>203599.161638</v>
       </c>
-      <c r="FA10">
+      <c r="FA10" t="n">
         <v>248118.444993</v>
       </c>
-      <c r="FB10">
+      <c r="FB10" t="n">
         <v>191492.166309</v>
       </c>
-      <c r="FC10">
+      <c r="FC10" t="n">
         <v>255265.588587</v>
       </c>
-      <c r="FD10">
+      <c r="FD10" t="n">
         <v>213040.213391</v>
       </c>
-      <c r="FE10">
+      <c r="FE10" t="n">
         <v>251389.80293</v>
       </c>
-      <c r="FF10">
+      <c r="FF10" t="n">
         <v>205833.404116</v>
       </c>
-      <c r="FG10">
+      <c r="FG10" t="n">
         <v>268395.090843</v>
       </c>
-      <c r="FH10">
+      <c r="FH10" t="n">
         <v>224610.897508</v>
       </c>
-      <c r="FI10">
+      <c r="FI10" t="n">
         <v>263985.080477</v>
       </c>
-      <c r="FJ10">
+      <c r="FJ10" t="n">
         <v>207445.124698</v>
       </c>
-      <c r="FK10" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM10" t="s">
-        <v>178</v>
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:169">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="n">
         <v>33222.769538</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>34949.547236</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>34483.879389</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>36002.698732</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>34104.375329</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>35808.8615</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>36054.24254</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>37244.314304</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>34838.435688</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>36241.808415</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>36817.526079</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>37684.943233</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>35050.501199</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>36495.774518</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>37051.236642</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>38687.603597</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>38203.392904</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>40738.159685</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>40721.657973</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>42489.667357</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>39816.339586</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>41602.720929</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>40729.565381</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>42671.362896</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>41885.280046</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>42349.694577</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>42253.945137</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>47259.422543</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>44593.955636</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>46262.912684</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>45738.332602</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>52074.162229</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>47187.57018</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>48944.836864</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>47030.906065</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>53827.194271</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>48361.636609</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>51163.888868</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>51597.099821</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>60965.013047</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>56974.52523</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>60420.491481</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>58328.796335</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>77830.895325</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>57707.564317</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>61424.451058</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>63638.368231</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>82568.700817</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>74874.873338</v>
       </c>
-      <c r="DW11">
+      <c r="DW11" t="n">
         <v>73302.83919100001</v>
       </c>
-      <c r="DX11">
+      <c r="DX11" t="n">
         <v>69352.476243</v>
       </c>
-      <c r="DY11">
+      <c r="DY11" t="n">
         <v>90257.18646899999</v>
       </c>
-      <c r="DZ11">
+      <c r="DZ11" t="n">
         <v>81849.769028</v>
       </c>
-      <c r="EA11">
+      <c r="EA11" t="n">
         <v>78986.74525599999</v>
       </c>
-      <c r="EB11">
+      <c r="EB11" t="n">
         <v>69831.126732</v>
       </c>
-      <c r="EC11">
+      <c r="EC11" t="n">
         <v>92980.047464</v>
       </c>
-      <c r="ED11">
+      <c r="ED11" t="n">
         <v>86996.07178499999</v>
       </c>
-      <c r="EE11">
+      <c r="EE11" t="n">
         <v>77540.215108</v>
       </c>
-      <c r="EF11">
+      <c r="EF11" t="n">
         <v>71308.754328</v>
       </c>
-      <c r="EG11">
+      <c r="EG11" t="n">
         <v>90673.202213</v>
       </c>
-      <c r="EH11">
+      <c r="EH11" t="n">
         <v>91094.640822</v>
       </c>
-      <c r="EI11">
+      <c r="EI11" t="n">
         <v>92214.93479</v>
       </c>
-      <c r="EJ11">
+      <c r="EJ11" t="n">
         <v>76211.804924</v>
       </c>
-      <c r="EK11">
+      <c r="EK11" t="n">
         <v>99668.96401900001</v>
       </c>
-      <c r="EL11">
+      <c r="EL11" t="n">
         <v>98103.299581</v>
       </c>
-      <c r="EM11">
+      <c r="EM11" t="n">
         <v>103794.542747</v>
       </c>
-      <c r="EN11">
+      <c r="EN11" t="n">
         <v>79938.14666499999</v>
       </c>
-      <c r="EO11">
+      <c r="EO11" t="n">
         <v>102754.373763</v>
       </c>
-      <c r="EP11">
+      <c r="EP11" t="n">
         <v>101937.597104</v>
       </c>
-      <c r="EQ11">
+      <c r="EQ11" t="n">
         <v>103458.429168</v>
       </c>
-      <c r="ER11">
+      <c r="ER11" t="n">
         <v>80317.107234</v>
       </c>
-      <c r="ES11">
+      <c r="ES11" t="n">
         <v>107519.729576</v>
       </c>
-      <c r="ET11">
+      <c r="ET11" t="n">
         <v>106992.055771</v>
       </c>
-      <c r="EU11">
+      <c r="EU11" t="n">
         <v>108650.360499</v>
       </c>
-      <c r="EV11">
+      <c r="EV11" t="n">
         <v>83189.64532</v>
       </c>
-      <c r="EW11">
+      <c r="EW11" t="n">
         <v>112192.932663</v>
       </c>
-      <c r="EX11">
+      <c r="EX11" t="n">
         <v>114162.711452</v>
       </c>
-      <c r="EY11">
+      <c r="EY11" t="n">
         <v>115851.190157</v>
       </c>
-      <c r="EZ11">
+      <c r="EZ11" t="n">
         <v>87495.69008099999</v>
       </c>
-      <c r="FA11">
+      <c r="FA11" t="n">
         <v>121181.005554</v>
       </c>
-      <c r="FB11">
+      <c r="FB11" t="n">
         <v>102955.803569</v>
       </c>
-      <c r="FC11">
+      <c r="FC11" t="n">
         <v>42105.144531</v>
       </c>
-      <c r="FD11">
+      <c r="FD11" t="n">
         <v>44918.260481</v>
       </c>
-      <c r="FE11">
+      <c r="FE11" t="n">
         <v>68778.972838</v>
       </c>
-      <c r="FF11">
+      <c r="FF11" t="n">
         <v>63079.471816</v>
       </c>
-      <c r="FG11">
+      <c r="FG11" t="n">
         <v>57920.704429</v>
       </c>
-      <c r="FH11">
+      <c r="FH11" t="n">
         <v>53709.409664</v>
       </c>
-      <c r="FI11">
+      <c r="FI11" t="n">
         <v>89140.966334</v>
       </c>
-      <c r="FJ11">
+      <c r="FJ11" t="n">
         <v>77120.42705699999</v>
       </c>
-      <c r="FK11" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>178</v>
+      <c r="FK11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>